--- a/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.28806787884516</v>
+        <v>6.288067878845162</v>
       </c>
       <c r="D2">
-        <v>9.824176184142857</v>
+        <v>9.824176184142763</v>
       </c>
       <c r="E2">
-        <v>6.436766132104388</v>
+        <v>6.436766132104399</v>
       </c>
       <c r="F2">
-        <v>68.93514722964792</v>
+        <v>68.93514722964781</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>64.1716939603732</v>
+        <v>64.1716939603731</v>
       </c>
       <c r="K2">
-        <v>7.3071412550663</v>
+        <v>7.307141255066271</v>
       </c>
       <c r="L2">
-        <v>41.04619498331158</v>
+        <v>41.04619498331149</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.799962352151019</v>
+        <v>5.799962352151038</v>
       </c>
       <c r="D3">
-        <v>8.779515045862018</v>
+        <v>8.77951504586191</v>
       </c>
       <c r="E3">
-        <v>6.250669098548357</v>
+        <v>6.250669098548199</v>
       </c>
       <c r="F3">
-        <v>62.4713944499506</v>
+        <v>62.4713944499501</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>58.81550521312514</v>
+        <v>58.81550521312499</v>
       </c>
       <c r="K3">
-        <v>6.958327580644042</v>
+        <v>6.958327580643998</v>
       </c>
       <c r="L3">
-        <v>37.5900511893725</v>
+        <v>37.59005118937242</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.512166505348482</v>
+        <v>5.512166505348507</v>
       </c>
       <c r="D4">
-        <v>8.295378843127299</v>
+        <v>8.295378843127317</v>
       </c>
       <c r="E4">
-        <v>6.138292723427796</v>
+        <v>6.138292723427761</v>
       </c>
       <c r="F4">
-        <v>58.63792398004747</v>
+        <v>58.63792398004757</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>55.50135764586754</v>
       </c>
       <c r="K4">
-        <v>6.746584322084365</v>
+        <v>6.746584322084225</v>
       </c>
       <c r="L4">
-        <v>35.45454645466761</v>
+        <v>35.45454645466762</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.397020238125408</v>
+        <v>5.397020238125403</v>
       </c>
       <c r="D5">
-        <v>8.115866474275437</v>
+        <v>8.115866474275434</v>
       </c>
       <c r="E5">
-        <v>6.092762366737977</v>
+        <v>6.092762366738035</v>
       </c>
       <c r="F5">
-        <v>57.09722798311299</v>
+        <v>57.09722798311311</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>54.1368618945725</v>
+        <v>54.13686189457266</v>
       </c>
       <c r="K5">
-        <v>6.660452349728825</v>
+        <v>6.66045234972885</v>
       </c>
       <c r="L5">
-        <v>34.57592426517914</v>
+        <v>34.57592426517924</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.378010162867622</v>
+        <v>5.378010162867635</v>
       </c>
       <c r="D6">
-        <v>8.086615430416577</v>
+        <v>8.086615430416581</v>
       </c>
       <c r="E6">
-        <v>6.085213564460865</v>
+        <v>6.085213564461048</v>
       </c>
       <c r="F6">
-        <v>56.84241236132058</v>
+        <v>56.84241236132064</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>53.90926856924666</v>
+        <v>53.90926856924675</v>
       </c>
       <c r="K6">
-        <v>6.646149561978694</v>
+        <v>6.646149561978835</v>
       </c>
       <c r="L6">
-        <v>34.42940555806187</v>
+        <v>34.42940555806189</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.510605859744095</v>
+        <v>5.510605859744087</v>
       </c>
       <c r="D7">
-        <v>8.2929195325747</v>
+        <v>8.292919532574839</v>
       </c>
       <c r="E7">
-        <v>6.137677827975994</v>
+        <v>6.137677827976126</v>
       </c>
       <c r="F7">
-        <v>58.6170718863611</v>
+        <v>58.61707188636219</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.48302033829683</v>
+        <v>55.48302033829734</v>
       </c>
       <c r="K7">
-        <v>6.7454225599941</v>
+        <v>6.745422559994253</v>
       </c>
       <c r="L7">
-        <v>35.44273649184606</v>
+        <v>35.44273649184638</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.116656427820411</v>
+        <v>6.116656427820354</v>
       </c>
       <c r="D8">
-        <v>9.456313233768025</v>
+        <v>9.456313233767922</v>
       </c>
       <c r="E8">
-        <v>6.37204611934228</v>
+        <v>6.372046119342185</v>
       </c>
       <c r="F8">
-        <v>66.6690943228795</v>
+        <v>66.6690943228792</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>62.32471394644003</v>
+        <v>62.32471394643993</v>
       </c>
       <c r="K8">
-        <v>7.18602439764225</v>
+        <v>7.186024397642186</v>
       </c>
       <c r="L8">
-        <v>39.85369684242737</v>
+        <v>39.85369684242733</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.602514972779425</v>
+        <v>7.602514972779518</v>
       </c>
       <c r="D9">
-        <v>12.4082486589029</v>
+        <v>12.40824865890288</v>
       </c>
       <c r="E9">
-        <v>6.865903469455456</v>
+        <v>6.865903469455451</v>
       </c>
       <c r="F9">
-        <v>84.55341543645007</v>
+        <v>84.55341543645022</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>76.12072660827933</v>
+        <v>76.12072660827937</v>
       </c>
       <c r="K9">
-        <v>8.108017652465325</v>
+        <v>8.1080176524653</v>
       </c>
       <c r="L9">
-        <v>48.78134062419761</v>
+        <v>48.78134062419763</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.076799742185734</v>
+        <v>9.076799742185813</v>
       </c>
       <c r="D10">
-        <v>15.53135597784926</v>
+        <v>15.53135597784929</v>
       </c>
       <c r="E10">
-        <v>7.333258308063215</v>
+        <v>7.333258308063143</v>
       </c>
       <c r="F10">
-        <v>102.7449624087493</v>
+        <v>102.7449624087495</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>88.56698928665121</v>
+        <v>88.56698928665134</v>
       </c>
       <c r="K10">
-        <v>8.972162636919268</v>
+        <v>8.972162636919231</v>
       </c>
       <c r="L10">
-        <v>56.87976617291795</v>
+        <v>56.87976617291803</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D11">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E11">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F11">
         <v>118.1728089039307</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K11">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L11">
         <v>63.06085824137049</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D12">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E12">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F12">
         <v>118.1728089039307</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K12">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L12">
         <v>63.06085824137049</v>
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D13">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E13">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F13">
         <v>118.1728089039307</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K13">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L13">
         <v>63.06085824137049</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D14">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E14">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F14">
         <v>118.1728089039307</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K14">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L14">
         <v>63.06085824137049</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D15">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E15">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F15">
         <v>118.1728089039307</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K15">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L15">
         <v>63.06085824137049</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D16">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E16">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F16">
         <v>118.1728089039307</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K16">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L16">
         <v>63.06085824137049</v>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D17">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E17">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F17">
         <v>118.1728089039307</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K17">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L17">
         <v>63.06085824137049</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D18">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E18">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F18">
         <v>118.1728089039307</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K18">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L18">
         <v>63.06085824137049</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D19">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E19">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F19">
         <v>118.1728089039307</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K19">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L19">
         <v>63.06085824137049</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D20">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E20">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F20">
         <v>118.1728089039307</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K20">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L20">
         <v>63.06085824137049</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D21">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E21">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F21">
         <v>118.1728089039307</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K21">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L21">
         <v>63.06085824137049</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D22">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E22">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F22">
         <v>118.1728089039307</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K22">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L22">
         <v>63.06085824137049</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D23">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E23">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F23">
         <v>118.1728089039307</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K23">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L23">
         <v>63.06085824137049</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D24">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E24">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F24">
         <v>118.1728089039307</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K24">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L24">
         <v>63.06085824137049</v>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.26455339330195</v>
+        <v>10.26455339330194</v>
       </c>
       <c r="D25">
-        <v>18.2882942473369</v>
+        <v>18.28829424733694</v>
       </c>
       <c r="E25">
-        <v>7.731527818563855</v>
+        <v>7.73152781856383</v>
       </c>
       <c r="F25">
         <v>118.1728089039307</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>98.02655861887168</v>
+        <v>98.02655861887165</v>
       </c>
       <c r="K25">
-        <v>9.666205791624396</v>
+        <v>9.666205791624332</v>
       </c>
       <c r="L25">
         <v>63.06085824137049</v>

--- a/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.288067878845162</v>
+        <v>6.28806787884516</v>
       </c>
       <c r="D2">
-        <v>9.824176184142763</v>
+        <v>9.824176184142857</v>
       </c>
       <c r="E2">
-        <v>6.436766132104399</v>
+        <v>6.436766132104388</v>
       </c>
       <c r="F2">
-        <v>68.93514722964781</v>
+        <v>68.93514722964792</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>64.1716939603731</v>
+        <v>64.1716939603732</v>
       </c>
       <c r="K2">
-        <v>7.307141255066271</v>
+        <v>7.3071412550663</v>
       </c>
       <c r="L2">
-        <v>41.04619498331149</v>
+        <v>41.04619498331158</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.799962352151038</v>
+        <v>5.799962352151019</v>
       </c>
       <c r="D3">
-        <v>8.77951504586191</v>
+        <v>8.779515045862018</v>
       </c>
       <c r="E3">
-        <v>6.250669098548199</v>
+        <v>6.250669098548357</v>
       </c>
       <c r="F3">
-        <v>62.4713944499501</v>
+        <v>62.4713944499506</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>58.81550521312499</v>
+        <v>58.81550521312514</v>
       </c>
       <c r="K3">
-        <v>6.958327580643998</v>
+        <v>6.958327580644042</v>
       </c>
       <c r="L3">
-        <v>37.59005118937242</v>
+        <v>37.5900511893725</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.512166505348507</v>
+        <v>5.512166505348482</v>
       </c>
       <c r="D4">
-        <v>8.295378843127317</v>
+        <v>8.295378843127299</v>
       </c>
       <c r="E4">
-        <v>6.138292723427761</v>
+        <v>6.138292723427796</v>
       </c>
       <c r="F4">
-        <v>58.63792398004757</v>
+        <v>58.63792398004747</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>55.50135764586754</v>
       </c>
       <c r="K4">
-        <v>6.746584322084225</v>
+        <v>6.746584322084365</v>
       </c>
       <c r="L4">
-        <v>35.45454645466762</v>
+        <v>35.45454645466761</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.397020238125403</v>
+        <v>5.397020238125408</v>
       </c>
       <c r="D5">
-        <v>8.115866474275434</v>
+        <v>8.115866474275437</v>
       </c>
       <c r="E5">
-        <v>6.092762366738035</v>
+        <v>6.092762366737977</v>
       </c>
       <c r="F5">
-        <v>57.09722798311311</v>
+        <v>57.09722798311299</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>54.13686189457266</v>
+        <v>54.1368618945725</v>
       </c>
       <c r="K5">
-        <v>6.66045234972885</v>
+        <v>6.660452349728825</v>
       </c>
       <c r="L5">
-        <v>34.57592426517924</v>
+        <v>34.57592426517914</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.378010162867635</v>
+        <v>5.378010162867622</v>
       </c>
       <c r="D6">
-        <v>8.086615430416581</v>
+        <v>8.086615430416577</v>
       </c>
       <c r="E6">
-        <v>6.085213564461048</v>
+        <v>6.085213564460865</v>
       </c>
       <c r="F6">
-        <v>56.84241236132064</v>
+        <v>56.84241236132058</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>53.90926856924675</v>
+        <v>53.90926856924666</v>
       </c>
       <c r="K6">
-        <v>6.646149561978835</v>
+        <v>6.646149561978694</v>
       </c>
       <c r="L6">
-        <v>34.42940555806189</v>
+        <v>34.42940555806187</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.510605859744087</v>
+        <v>5.510605859744095</v>
       </c>
       <c r="D7">
-        <v>8.292919532574839</v>
+        <v>8.2929195325747</v>
       </c>
       <c r="E7">
-        <v>6.137677827976126</v>
+        <v>6.137677827975994</v>
       </c>
       <c r="F7">
-        <v>58.61707188636219</v>
+        <v>58.6170718863611</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.48302033829734</v>
+        <v>55.48302033829683</v>
       </c>
       <c r="K7">
-        <v>6.745422559994253</v>
+        <v>6.7454225599941</v>
       </c>
       <c r="L7">
-        <v>35.44273649184638</v>
+        <v>35.44273649184606</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.116656427820354</v>
+        <v>6.116656427820411</v>
       </c>
       <c r="D8">
-        <v>9.456313233767922</v>
+        <v>9.456313233768025</v>
       </c>
       <c r="E8">
-        <v>6.372046119342185</v>
+        <v>6.37204611934228</v>
       </c>
       <c r="F8">
-        <v>66.6690943228792</v>
+        <v>66.6690943228795</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>62.32471394643993</v>
+        <v>62.32471394644003</v>
       </c>
       <c r="K8">
-        <v>7.186024397642186</v>
+        <v>7.18602439764225</v>
       </c>
       <c r="L8">
-        <v>39.85369684242733</v>
+        <v>39.85369684242737</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.602514972779518</v>
+        <v>7.602514972779425</v>
       </c>
       <c r="D9">
-        <v>12.40824865890288</v>
+        <v>12.4082486589029</v>
       </c>
       <c r="E9">
-        <v>6.865903469455451</v>
+        <v>6.865903469455456</v>
       </c>
       <c r="F9">
-        <v>84.55341543645022</v>
+        <v>84.55341543645007</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>76.12072660827937</v>
+        <v>76.12072660827933</v>
       </c>
       <c r="K9">
-        <v>8.1080176524653</v>
+        <v>8.108017652465325</v>
       </c>
       <c r="L9">
-        <v>48.78134062419763</v>
+        <v>48.78134062419761</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.076799742185813</v>
+        <v>9.076799742185734</v>
       </c>
       <c r="D10">
-        <v>15.53135597784929</v>
+        <v>15.53135597784926</v>
       </c>
       <c r="E10">
-        <v>7.333258308063143</v>
+        <v>7.333258308063215</v>
       </c>
       <c r="F10">
-        <v>102.7449624087495</v>
+        <v>102.7449624087493</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>88.56698928665134</v>
+        <v>88.56698928665121</v>
       </c>
       <c r="K10">
-        <v>8.972162636919231</v>
+        <v>8.972162636919268</v>
       </c>
       <c r="L10">
-        <v>56.87976617291803</v>
+        <v>56.87976617291795</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D11">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E11">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F11">
         <v>118.1728089039307</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K11">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L11">
         <v>63.06085824137049</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D12">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E12">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F12">
         <v>118.1728089039307</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K12">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L12">
         <v>63.06085824137049</v>
@@ -833,13 +833,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D13">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E13">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F13">
         <v>118.1728089039307</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K13">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L13">
         <v>63.06085824137049</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D14">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E14">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F14">
         <v>118.1728089039307</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K14">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L14">
         <v>63.06085824137049</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D15">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E15">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F15">
         <v>118.1728089039307</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K15">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L15">
         <v>63.06085824137049</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D16">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E16">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F16">
         <v>118.1728089039307</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K16">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L16">
         <v>63.06085824137049</v>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D17">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E17">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F17">
         <v>118.1728089039307</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K17">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L17">
         <v>63.06085824137049</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D18">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E18">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F18">
         <v>118.1728089039307</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K18">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L18">
         <v>63.06085824137049</v>
@@ -1061,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D19">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E19">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F19">
         <v>118.1728089039307</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K19">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L19">
         <v>63.06085824137049</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D20">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E20">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F20">
         <v>118.1728089039307</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K20">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L20">
         <v>63.06085824137049</v>
@@ -1137,13 +1137,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D21">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E21">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F21">
         <v>118.1728089039307</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K21">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L21">
         <v>63.06085824137049</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D22">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E22">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F22">
         <v>118.1728089039307</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K22">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L22">
         <v>63.06085824137049</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D23">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E23">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F23">
         <v>118.1728089039307</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K23">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L23">
         <v>63.06085824137049</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D24">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E24">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F24">
         <v>118.1728089039307</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K24">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L24">
         <v>63.06085824137049</v>
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.26455339330194</v>
+        <v>10.26455339330195</v>
       </c>
       <c r="D25">
-        <v>18.28829424733694</v>
+        <v>18.2882942473369</v>
       </c>
       <c r="E25">
-        <v>7.73152781856383</v>
+        <v>7.731527818563855</v>
       </c>
       <c r="F25">
         <v>118.1728089039307</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>98.02655861887165</v>
+        <v>98.02655861887168</v>
       </c>
       <c r="K25">
-        <v>9.666205791624332</v>
+        <v>9.666205791624396</v>
       </c>
       <c r="L25">
         <v>63.06085824137049</v>

--- a/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,19 +418,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.28806787884516</v>
+        <v>6.255116252643535</v>
       </c>
       <c r="D2">
-        <v>9.824176184142857</v>
+        <v>9.708055915051219</v>
       </c>
       <c r="E2">
-        <v>6.436766132104388</v>
+        <v>6.291861606353442</v>
       </c>
       <c r="F2">
-        <v>68.93514722964792</v>
+        <v>68.48138000714388</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.895297253313978</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,16 +439,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>64.1716939603732</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.3071412550663</v>
+        <v>63.7897091372058</v>
       </c>
       <c r="L2">
-        <v>41.04619498331158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>7.200527028315533</v>
+      </c>
+      <c r="M2">
+        <v>40.79997719316874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,19 +459,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.799962352151019</v>
+        <v>5.770659871434541</v>
       </c>
       <c r="D3">
-        <v>8.779515045862018</v>
+        <v>8.762829814468798</v>
       </c>
       <c r="E3">
-        <v>6.250669098548357</v>
+        <v>6.100207482027963</v>
       </c>
       <c r="F3">
-        <v>62.4713944499506</v>
+        <v>62.14174963991844</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.937381160879393</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,16 +480,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>58.81550521312514</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6.958327580644042</v>
+        <v>58.47963958122977</v>
       </c>
       <c r="L3">
-        <v>37.5900511893725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>6.849828241662145</v>
+      </c>
+      <c r="M3">
+        <v>37.3714230580015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.512166505348482</v>
+        <v>5.48458269044102</v>
       </c>
       <c r="D4">
-        <v>8.295378843127299</v>
+        <v>8.32121190800258</v>
       </c>
       <c r="E4">
-        <v>6.138292723427796</v>
+        <v>5.984039356917152</v>
       </c>
       <c r="F4">
-        <v>58.63792398004747</v>
+        <v>58.38407467740585</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.962050392690205</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,16 +521,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>55.50135764586754</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.746584322084365</v>
+        <v>55.19151025896119</v>
       </c>
       <c r="L4">
-        <v>35.45454645466761</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.636456450900341</v>
+      </c>
+      <c r="M4">
+        <v>35.2511310160982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,19 +541,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.397020238125408</v>
+        <v>5.370041080674754</v>
       </c>
       <c r="D5">
-        <v>8.115866474275437</v>
+        <v>8.151526389863575</v>
       </c>
       <c r="E5">
-        <v>6.092762366737977</v>
+        <v>5.936882057477555</v>
       </c>
       <c r="F5">
-        <v>57.09722798311299</v>
+        <v>56.87477162767026</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.971915060745732</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,16 +562,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>54.1368618945725</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.660452349728825</v>
+        <v>53.83733648998938</v>
       </c>
       <c r="L5">
-        <v>34.57592426517914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.549562446564557</v>
+      </c>
+      <c r="M5">
+        <v>34.37846165436873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.378010162867622</v>
+        <v>5.351126376447331</v>
       </c>
       <c r="D6">
-        <v>8.086615430416577</v>
+        <v>8.123921711332438</v>
       </c>
       <c r="E6">
-        <v>6.085213564460865</v>
+        <v>5.929058476046103</v>
       </c>
       <c r="F6">
-        <v>56.84241236132058</v>
+        <v>56.62521310512329</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.973544196385179</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,16 +603,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>53.90926856924666</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.646149561978694</v>
+        <v>53.61144670093433</v>
       </c>
       <c r="L6">
-        <v>34.42940555806187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.535127611653434</v>
+      </c>
+      <c r="M6">
+        <v>34.23292058250291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.510605859744095</v>
+        <v>5.48303055156908</v>
       </c>
       <c r="D7">
-        <v>8.2929195325747</v>
+        <v>8.318884160687082</v>
       </c>
       <c r="E7">
-        <v>6.137677827975994</v>
+        <v>5.983402836475051</v>
       </c>
       <c r="F7">
-        <v>58.6170718863611</v>
+        <v>58.36364326746752</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.96218407734063</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,16 +644,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>55.48302033829683</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.7454225599941</v>
+        <v>55.17331298685417</v>
       </c>
       <c r="L7">
-        <v>35.44273649184606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.635284789892778</v>
+      </c>
+      <c r="M7">
+        <v>35.23940214191118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.116656427820411</v>
+        <v>6.085098995142943</v>
       </c>
       <c r="D8">
-        <v>9.456313233768025</v>
+        <v>9.34886656612955</v>
       </c>
       <c r="E8">
-        <v>6.37204611934228</v>
+        <v>6.225314535046656</v>
       </c>
       <c r="F8">
-        <v>66.6690943228795</v>
+        <v>66.25866602875577</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.910127060196749</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,16 +685,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>62.32471394644003</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>7.18602439764225</v>
+        <v>61.95933443728324</v>
       </c>
       <c r="L8">
-        <v>39.85369684242737</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>7.078873472222547</v>
+      </c>
+      <c r="M8">
+        <v>39.61749470438665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.602514972779425</v>
+        <v>7.557695973558372</v>
       </c>
       <c r="D9">
-        <v>12.4082486589029</v>
+        <v>12.2298022486186</v>
       </c>
       <c r="E9">
-        <v>6.865903469455456</v>
+        <v>6.72966164331368</v>
       </c>
       <c r="F9">
-        <v>84.55341543645007</v>
+        <v>83.77634354598479</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.79063782465413</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,16 +726,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>76.12072660827933</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>8.108017652465325</v>
+        <v>75.59944415165079</v>
       </c>
       <c r="L9">
-        <v>48.78134062419761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>8.000955235835985</v>
+      </c>
+      <c r="M9">
+        <v>48.44862349436366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.076799742185734</v>
+        <v>8.991853212376901</v>
       </c>
       <c r="D10">
-        <v>15.53135597784926</v>
+        <v>15.2369536252657</v>
       </c>
       <c r="E10">
-        <v>7.333258308063215</v>
+        <v>7.193846968363317</v>
       </c>
       <c r="F10">
-        <v>102.7449624087493</v>
+        <v>101.3454824080186</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.66402526061204</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,16 +767,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>88.56698928665121</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>8.972162636919268</v>
+        <v>87.73335716398323</v>
       </c>
       <c r="L10">
-        <v>56.87976617291795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>8.848689519795386</v>
+      </c>
+      <c r="M10">
+        <v>56.34637218716525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.26455339330195</v>
+        <v>10.05606391476487</v>
       </c>
       <c r="D11">
-        <v>18.2882942473369</v>
+        <v>17.67011650140998</v>
       </c>
       <c r="E11">
-        <v>7.731527818563855</v>
+        <v>7.547723284015007</v>
       </c>
       <c r="F11">
-        <v>118.1728089039307</v>
+        <v>115.0370805077236</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.560210198354521</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,16 +808,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>9.666205791624396</v>
+        <v>96.26133432155277</v>
       </c>
       <c r="L11">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>9.470972284656773</v>
+      </c>
+      <c r="M11">
+        <v>61.92032441405336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.26455339330195</v>
+        <v>10.05606391476487</v>
       </c>
       <c r="D12">
-        <v>18.2882942473369</v>
+        <v>17.67011650140998</v>
       </c>
       <c r="E12">
-        <v>7.731527818563855</v>
+        <v>7.547723284015007</v>
       </c>
       <c r="F12">
-        <v>118.1728089039307</v>
+        <v>115.0370805077236</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.560210198354521</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,16 +849,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>9.666205791624396</v>
+        <v>96.26133432155277</v>
       </c>
       <c r="L12">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>9.470972284656773</v>
+      </c>
+      <c r="M12">
+        <v>61.92032441405336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.26455339330195</v>
+        <v>11.04296493535928</v>
       </c>
       <c r="D13">
-        <v>18.2882942473369</v>
+        <v>20.12468243935914</v>
       </c>
       <c r="E13">
-        <v>7.731527818563855</v>
+        <v>7.930666123960322</v>
       </c>
       <c r="F13">
-        <v>118.1728089039307</v>
+        <v>128.3495905836469</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.454660970824251</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,16 +890,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>9.666205791624396</v>
+        <v>103.8229254096751</v>
       </c>
       <c r="L13">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>10.07069854778311</v>
+      </c>
+      <c r="M13">
+        <v>66.86933549010119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.26455339330195</v>
+        <v>11.79054244652808</v>
       </c>
       <c r="D14">
-        <v>18.2882942473369</v>
+        <v>22.16573532538166</v>
       </c>
       <c r="E14">
-        <v>7.731527818563855</v>
+        <v>8.324278710597417</v>
       </c>
       <c r="F14">
-        <v>118.1728089039307</v>
+        <v>138.9946055316697</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.366703526633398</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,16 +931,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>9.666205791624396</v>
+        <v>109.367116544639</v>
       </c>
       <c r="L14">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>10.58010852333988</v>
+      </c>
+      <c r="M14">
+        <v>70.48504558894335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,19 +951,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.26455339330195</v>
+        <v>11.99924125037273</v>
       </c>
       <c r="D15">
-        <v>18.2882942473369</v>
+        <v>22.77552851817603</v>
       </c>
       <c r="E15">
-        <v>7.731527818563855</v>
+        <v>8.46593233830391</v>
       </c>
       <c r="F15">
-        <v>118.1728089039307</v>
+        <v>142.0909286623942</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.340466193836067</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,16 +972,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>9.666205791624396</v>
+        <v>110.8974402248804</v>
       </c>
       <c r="L15">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>10.7402684925501</v>
+      </c>
+      <c r="M15">
+        <v>71.4769207345236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.26455339330195</v>
+        <v>12.71917243523826</v>
       </c>
       <c r="D16">
-        <v>18.2882942473369</v>
+        <v>25.09660772320989</v>
       </c>
       <c r="E16">
-        <v>7.731527818563855</v>
+        <v>9.171296962038818</v>
       </c>
       <c r="F16">
-        <v>118.1728089039307</v>
+        <v>153.4630012179399</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.241180064238252</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,16 +1013,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>9.666205791624396</v>
+        <v>116.2056791638727</v>
       </c>
       <c r="L16">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.41994835763462</v>
+      </c>
+      <c r="M16">
+        <v>74.86748139309535</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.26455339330195</v>
+        <v>13.0002749213061</v>
       </c>
       <c r="D17">
-        <v>18.2882942473369</v>
+        <v>26.15601041994532</v>
       </c>
       <c r="E17">
-        <v>7.731527818563855</v>
+        <v>9.617219387615494</v>
       </c>
       <c r="F17">
-        <v>118.1728089039307</v>
+        <v>158.3989844304141</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.196393914071123</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,16 +1054,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>9.666205791624396</v>
+        <v>118.3601147804543</v>
       </c>
       <c r="L17">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.78800570844697</v>
+      </c>
+      <c r="M17">
+        <v>76.20164827734473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.26455339330195</v>
+        <v>13.13193658613783</v>
       </c>
       <c r="D18">
-        <v>18.2882942473369</v>
+        <v>26.70709248441047</v>
       </c>
       <c r="E18">
-        <v>7.731527818563855</v>
+        <v>9.890751213145753</v>
       </c>
       <c r="F18">
-        <v>118.1728089039307</v>
+        <v>160.8915515005118</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.173296334527253</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,16 +1095,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>9.666205791624396</v>
+        <v>119.414632132444</v>
       </c>
       <c r="L18">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>12.00017608471523</v>
+      </c>
+      <c r="M18">
+        <v>76.83882728064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.26455339330195</v>
+        <v>13.17239323729228</v>
       </c>
       <c r="D19">
-        <v>18.2882942473369</v>
+        <v>26.88646878897649</v>
       </c>
       <c r="E19">
-        <v>7.731527818563855</v>
+        <v>9.986780634623919</v>
       </c>
       <c r="F19">
-        <v>118.1728089039307</v>
+        <v>161.6907593158473</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.165813118697976</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,16 +1136,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>9.666205791624396</v>
+        <v>119.7480809641871</v>
       </c>
       <c r="L19">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>12.07281204940825</v>
+      </c>
+      <c r="M19">
+        <v>77.03746921432507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.26455339330195</v>
+        <v>12.97374928761821</v>
       </c>
       <c r="D20">
-        <v>18.2882942473369</v>
+        <v>26.05004398903559</v>
       </c>
       <c r="E20">
-        <v>7.731527818563855</v>
+        <v>9.56811879044721</v>
       </c>
       <c r="F20">
-        <v>118.1728089039307</v>
+        <v>157.913528779244</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.200852448939954</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,16 +1177,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>9.666205791624396</v>
+        <v>118.1521484617512</v>
       </c>
       <c r="L20">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.74897371125042</v>
+      </c>
+      <c r="M20">
+        <v>76.07457081209881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.26455339330195</v>
+        <v>11.66510103948437</v>
       </c>
       <c r="D21">
-        <v>18.2882942473369</v>
+        <v>21.80884209185005</v>
       </c>
       <c r="E21">
-        <v>7.731527818563855</v>
+        <v>8.247445303335818</v>
       </c>
       <c r="F21">
-        <v>118.1728089039307</v>
+        <v>137.163660962382</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.382074321966445</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,16 +1218,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>9.666205791624396</v>
+        <v>108.4448396291401</v>
       </c>
       <c r="L21">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>10.48859631260674</v>
+      </c>
+      <c r="M21">
+        <v>69.88554572803982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.26455339330195</v>
+        <v>11.66510103948437</v>
       </c>
       <c r="D22">
-        <v>18.2882942473369</v>
+        <v>21.80884209185005</v>
       </c>
       <c r="E22">
-        <v>7.731527818563855</v>
+        <v>8.247445303335818</v>
       </c>
       <c r="F22">
-        <v>118.1728089039307</v>
+        <v>137.163660962382</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.382074321966445</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,16 +1259,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>9.666205791624396</v>
+        <v>108.4448396291401</v>
       </c>
       <c r="L22">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>10.48859631260674</v>
+      </c>
+      <c r="M22">
+        <v>69.88554572803982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.26455339330195</v>
+        <v>11.66510103948437</v>
       </c>
       <c r="D23">
-        <v>18.2882942473369</v>
+        <v>21.80884209185005</v>
       </c>
       <c r="E23">
-        <v>7.731527818563855</v>
+        <v>8.247445303335818</v>
       </c>
       <c r="F23">
-        <v>118.1728089039307</v>
+        <v>137.163660962382</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.382074321966445</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,16 +1300,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>9.666205791624396</v>
+        <v>108.4448396291401</v>
       </c>
       <c r="L23">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>10.48859631260674</v>
+      </c>
+      <c r="M23">
+        <v>69.88554572803982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.26455339330195</v>
+        <v>11.66510103948437</v>
       </c>
       <c r="D24">
-        <v>18.2882942473369</v>
+        <v>21.80884209185005</v>
       </c>
       <c r="E24">
-        <v>7.731527818563855</v>
+        <v>8.247445303335818</v>
       </c>
       <c r="F24">
-        <v>118.1728089039307</v>
+        <v>137.163660962382</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.382074321966445</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,16 +1341,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>9.666205791624396</v>
+        <v>108.4448396291401</v>
       </c>
       <c r="L24">
-        <v>63.06085824137049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.48859631260674</v>
+      </c>
+      <c r="M24">
+        <v>69.88554572803982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.26455339330195</v>
+        <v>11.66510103948437</v>
       </c>
       <c r="D25">
-        <v>18.2882942473369</v>
+        <v>21.80884209185005</v>
       </c>
       <c r="E25">
-        <v>7.731527818563855</v>
+        <v>8.247445303335818</v>
       </c>
       <c r="F25">
-        <v>118.1728089039307</v>
+        <v>137.163660962382</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.382074321966445</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>98.02655861887168</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>9.666205791624396</v>
+        <v>108.4448396291401</v>
       </c>
       <c r="L25">
-        <v>63.06085824137049</v>
+        <v>10.48859631260674</v>
+      </c>
+      <c r="M25">
+        <v>69.88554572803982</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.255116252643535</v>
+        <v>8.103730891564789</v>
       </c>
       <c r="D2">
-        <v>9.708055915051219</v>
+        <v>10.82036087616422</v>
       </c>
       <c r="E2">
-        <v>6.291861606353442</v>
+        <v>15.47829495678631</v>
       </c>
       <c r="F2">
-        <v>68.48138000714388</v>
+        <v>73.02999801657168</v>
       </c>
       <c r="G2">
-        <v>1.895297253313978</v>
+        <v>1.843116961269629</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,16 +448,22 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>63.7897091372058</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.200527028315533</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>40.79997719316874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>46.15736751503261</v>
+      </c>
+      <c r="N2">
+        <v>16.43201211351015</v>
+      </c>
+      <c r="O2">
+        <v>59.33280903826898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.770659871434541</v>
+        <v>7.40559585746564</v>
       </c>
       <c r="D3">
-        <v>8.762829814468798</v>
+        <v>9.813500373991962</v>
       </c>
       <c r="E3">
-        <v>6.100207482027963</v>
+        <v>14.51350726662963</v>
       </c>
       <c r="F3">
-        <v>62.14174963991844</v>
+        <v>66.5483504546156</v>
       </c>
       <c r="G3">
-        <v>1.937381160879393</v>
+        <v>1.880329247478898</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,16 +495,22 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>58.47963958122977</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.849828241662145</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>37.3714230580015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>42.47941036708567</v>
+      </c>
+      <c r="N3">
+        <v>15.90458367229667</v>
+      </c>
+      <c r="O3">
+        <v>54.02943600867929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.48458269044102</v>
+        <v>6.97505465099681</v>
       </c>
       <c r="D4">
-        <v>8.32121190800258</v>
+        <v>9.200141255799386</v>
       </c>
       <c r="E4">
-        <v>5.984039356917152</v>
+        <v>13.90197015165435</v>
       </c>
       <c r="F4">
-        <v>58.38407467740585</v>
+        <v>62.58894537755506</v>
       </c>
       <c r="G4">
-        <v>1.962050392690205</v>
+        <v>1.902337583913608</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,16 +542,22 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>55.19151025896119</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.636456450900341</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>35.2511310160982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>40.17849336686115</v>
+      </c>
+      <c r="N4">
+        <v>15.57456293636099</v>
+      </c>
+      <c r="O4">
+        <v>50.78834793421292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.370041080674754</v>
+        <v>6.798185824279722</v>
       </c>
       <c r="D5">
-        <v>8.151526389863575</v>
+        <v>8.949804248256532</v>
       </c>
       <c r="E5">
-        <v>5.936882057477555</v>
+        <v>13.64737441392482</v>
       </c>
       <c r="F5">
-        <v>56.87477162767026</v>
+        <v>60.97152332124148</v>
       </c>
       <c r="G5">
-        <v>1.971915060745732</v>
+        <v>1.911174174234515</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,16 +589,22 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>53.83733648998938</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.549562446564557</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>34.37846165436873</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>39.2262569058968</v>
+      </c>
+      <c r="N5">
+        <v>15.43878700418395</v>
+      </c>
+      <c r="O5">
+        <v>49.46388772217472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.351126376447331</v>
+        <v>6.768708430293431</v>
       </c>
       <c r="D6">
-        <v>8.123921711332438</v>
+        <v>8.908174105559736</v>
       </c>
       <c r="E6">
-        <v>5.929058476046103</v>
+        <v>13.60476152504685</v>
       </c>
       <c r="F6">
-        <v>56.62521310512329</v>
+        <v>60.70250147865296</v>
       </c>
       <c r="G6">
-        <v>1.973544196385179</v>
+        <v>1.912635406555692</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,16 +636,22 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>53.61144670093433</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.535127611653434</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>34.23292058250291</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>39.06716426856791</v>
+      </c>
+      <c r="N6">
+        <v>15.4161711237322</v>
+      </c>
+      <c r="O6">
+        <v>49.24356195757814</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.48303055156908</v>
+        <v>6.972676140887978</v>
       </c>
       <c r="D7">
-        <v>8.318884160687082</v>
+        <v>9.196768483715077</v>
       </c>
       <c r="E7">
-        <v>5.983402836475051</v>
+        <v>13.89855897570889</v>
       </c>
       <c r="F7">
-        <v>58.36364326746752</v>
+        <v>62.56715810641057</v>
       </c>
       <c r="G7">
-        <v>1.96218407734063</v>
+        <v>1.902457203496037</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,16 +683,22 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>55.17331298685417</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.635284789892778</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>35.23940214191118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>40.16571459082616</v>
+      </c>
+      <c r="N7">
+        <v>15.57273669694619</v>
+      </c>
+      <c r="O7">
+        <v>50.77050901206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.085098995142943</v>
+        <v>7.86273675319389</v>
       </c>
       <c r="D8">
-        <v>9.34886656612955</v>
+        <v>10.47104684270794</v>
       </c>
       <c r="E8">
-        <v>6.225314535046656</v>
+        <v>15.14917194193139</v>
       </c>
       <c r="F8">
-        <v>66.25866602875577</v>
+        <v>70.78443168324044</v>
       </c>
       <c r="G8">
-        <v>1.910127060196749</v>
+        <v>1.856178265103533</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,16 +730,22 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>61.95933443728324</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>7.078873472222547</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>39.61749470438665</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>44.89532446400407</v>
+      </c>
+      <c r="N8">
+        <v>16.251600666225</v>
+      </c>
+      <c r="O8">
+        <v>57.49569123822229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.557695973558372</v>
+        <v>9.660784030902629</v>
       </c>
       <c r="D9">
-        <v>12.2298022486186</v>
+        <v>13.12440917450781</v>
       </c>
       <c r="E9">
-        <v>6.72966164331368</v>
+        <v>17.49957797628175</v>
       </c>
       <c r="F9">
-        <v>83.77634354598479</v>
+        <v>87.72349739211653</v>
       </c>
       <c r="G9">
-        <v>1.79063782465413</v>
+        <v>1.753057072067194</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,16 +777,22 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>75.59944415165079</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>8.000955235835985</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>48.44862349436366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>54.10789482606425</v>
+      </c>
+      <c r="N9">
+        <v>17.52016799575752</v>
+      </c>
+      <c r="O9">
+        <v>71.35261806980337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.991853212376901</v>
+        <v>11.21093308679579</v>
       </c>
       <c r="D10">
-        <v>15.2369536252657</v>
+        <v>15.50924439097514</v>
       </c>
       <c r="E10">
-        <v>7.193846968363317</v>
+        <v>19.3376351077745</v>
       </c>
       <c r="F10">
-        <v>101.3454824080186</v>
+        <v>102.6338803574578</v>
       </c>
       <c r="G10">
-        <v>1.66402526061204</v>
+        <v>1.653027078083522</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,16 +824,22 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>87.73335716398323</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>8.848689519795386</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>56.34637218716525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>61.64183857076141</v>
+      </c>
+      <c r="N10">
+        <v>18.38318312356682</v>
+      </c>
+      <c r="O10">
+        <v>83.55855345322506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.05606391476487</v>
+        <v>12.12069997473162</v>
       </c>
       <c r="D11">
-        <v>17.67011650140998</v>
+        <v>16.95952637535212</v>
       </c>
       <c r="E11">
-        <v>7.547723284015007</v>
+        <v>20.35674901852772</v>
       </c>
       <c r="F11">
-        <v>115.0370805077236</v>
+        <v>111.5030503131827</v>
       </c>
       <c r="G11">
-        <v>1.560210198354521</v>
+        <v>1.589046215092686</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,16 +871,22 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>96.26133432155277</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>9.470972284656773</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>61.92032441405336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>65.86540811674998</v>
+      </c>
+      <c r="N11">
+        <v>18.73846748947832</v>
+      </c>
+      <c r="O11">
+        <v>90.8287868860379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.05606391476487</v>
+        <v>12.55416501332295</v>
       </c>
       <c r="D12">
-        <v>17.67011650140998</v>
+        <v>17.66619203722037</v>
       </c>
       <c r="E12">
-        <v>7.547723284015007</v>
+        <v>20.83599968788461</v>
       </c>
       <c r="F12">
-        <v>115.0370805077236</v>
+        <v>115.7585778499279</v>
       </c>
       <c r="G12">
-        <v>1.560210198354521</v>
+        <v>1.557070088410551</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,16 +918,22 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>96.26133432155277</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>9.470972284656773</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>61.92032441405336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>67.82122627466389</v>
+      </c>
+      <c r="N12">
+        <v>18.858632615525</v>
+      </c>
+      <c r="O12">
+        <v>94.32091524199332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.04296493535928</v>
+        <v>12.45375192891687</v>
       </c>
       <c r="D13">
-        <v>20.12468243935914</v>
+        <v>17.501506687197</v>
       </c>
       <c r="E13">
-        <v>7.930666123960322</v>
+        <v>20.72499360016608</v>
       </c>
       <c r="F13">
-        <v>128.3495905836469</v>
+        <v>114.7710676310542</v>
       </c>
       <c r="G13">
-        <v>1.454660970824251</v>
+        <v>1.564566892232488</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,16 +965,22 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>103.8229254096751</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>10.07069854778311</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>66.86933549010119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>67.3715544602577</v>
+      </c>
+      <c r="N13">
+        <v>18.83387768457812</v>
+      </c>
+      <c r="O13">
+        <v>93.51029980483358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.79054244652808</v>
+        <v>12.15363702733126</v>
       </c>
       <c r="D14">
-        <v>22.16573532538166</v>
+        <v>17.01284334202088</v>
       </c>
       <c r="E14">
-        <v>8.324278710597417</v>
+        <v>20.39320876155839</v>
       </c>
       <c r="F14">
-        <v>138.9946055316697</v>
+        <v>111.8257358543572</v>
       </c>
       <c r="G14">
-        <v>1.366703526633398</v>
+        <v>1.586651391821335</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,16 +1012,22 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>109.367116544639</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>10.58010852333988</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>70.48504558894335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>66.01534669461418</v>
+      </c>
+      <c r="N14">
+        <v>18.74878818676193</v>
+      </c>
+      <c r="O14">
+        <v>91.09348938545988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.99924125037273</v>
+        <v>11.98555173097314</v>
       </c>
       <c r="D15">
-        <v>22.77552851817603</v>
+        <v>16.74138010079965</v>
       </c>
       <c r="E15">
-        <v>8.46593233830391</v>
+        <v>20.20695502832496</v>
       </c>
       <c r="F15">
-        <v>142.0909286623942</v>
+        <v>110.1801548827208</v>
       </c>
       <c r="G15">
-        <v>1.340466193836067</v>
+        <v>1.598813851259824</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,16 +1059,22 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>110.8974402248804</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>10.7402684925501</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>71.4769207345236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>65.24794314265503</v>
+      </c>
+      <c r="N15">
+        <v>18.69415265435745</v>
+      </c>
+      <c r="O15">
+        <v>89.74375522116793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.71917243523826</v>
+        <v>11.15835747162141</v>
       </c>
       <c r="D16">
-        <v>25.09660772320989</v>
+        <v>15.42667151580914</v>
       </c>
       <c r="E16">
-        <v>9.171296962038818</v>
+        <v>19.27770999252018</v>
       </c>
       <c r="F16">
-        <v>153.4630012179399</v>
+        <v>102.1239384032755</v>
       </c>
       <c r="G16">
-        <v>1.241180064238252</v>
+        <v>1.656600552492871</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,16 +1106,22 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>116.2056791638727</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>11.41994835763462</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>74.86748139309535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>61.39307616443664</v>
+      </c>
+      <c r="N16">
+        <v>18.35880759639095</v>
+      </c>
+      <c r="O16">
+        <v>83.14081432666869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.0002749213061</v>
+        <v>10.72024312606751</v>
       </c>
       <c r="D17">
-        <v>26.15601041994532</v>
+        <v>14.74343768151584</v>
       </c>
       <c r="E17">
-        <v>9.617219387615494</v>
+        <v>18.77247574925612</v>
       </c>
       <c r="F17">
-        <v>158.3989844304141</v>
+        <v>97.88587942479654</v>
       </c>
       <c r="G17">
-        <v>1.196393914071123</v>
+        <v>1.685872030990347</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,16 +1153,22 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>118.3601147804543</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>11.78800570844697</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>76.20164827734473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>59.30110290876848</v>
+      </c>
+      <c r="N17">
+        <v>18.14107488727894</v>
+      </c>
+      <c r="O17">
+        <v>79.66997523199159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.13193658613783</v>
+        <v>10.48310786870035</v>
       </c>
       <c r="D18">
-        <v>26.70709248441047</v>
+        <v>14.3771061220973</v>
       </c>
       <c r="E18">
-        <v>9.890751213145753</v>
+        <v>18.49420651350298</v>
       </c>
       <c r="F18">
-        <v>160.8915515005118</v>
+        <v>95.60050969298649</v>
       </c>
       <c r="G18">
-        <v>1.173296334527253</v>
+        <v>1.701345326425189</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,16 +1200,22 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>119.414632132444</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>12.00017608471523</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>76.83882728064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>58.1549226443349</v>
+      </c>
+      <c r="N18">
+        <v>18.0129856527132</v>
+      </c>
+      <c r="O18">
+        <v>77.79894838606067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.17239323729228</v>
+        <v>10.40479744702414</v>
       </c>
       <c r="D19">
-        <v>26.88646878897649</v>
+        <v>14.25664748597116</v>
       </c>
       <c r="E19">
-        <v>9.986780634623919</v>
+        <v>18.40151275143541</v>
       </c>
       <c r="F19">
-        <v>161.6907593158473</v>
+        <v>94.84713788360116</v>
       </c>
       <c r="G19">
-        <v>1.165813118697976</v>
+        <v>1.706399067353711</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,16 +1247,22 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>119.7480809641871</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>12.07281204940825</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>77.03746921432507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>57.77431946516857</v>
+      </c>
+      <c r="N19">
+        <v>17.96920822238275</v>
+      </c>
+      <c r="O19">
+        <v>77.18224866903614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.97374928761821</v>
+        <v>10.76519105713921</v>
       </c>
       <c r="D20">
-        <v>26.05004398903559</v>
+        <v>14.81314413990452</v>
       </c>
       <c r="E20">
-        <v>9.56811879044721</v>
+        <v>18.82482326686534</v>
       </c>
       <c r="F20">
-        <v>157.913528779244</v>
+        <v>98.31974233464106</v>
       </c>
       <c r="G20">
-        <v>1.200852448939954</v>
+        <v>1.682910102292682</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,16 +1294,22 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>118.1521484617512</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>11.74897371125042</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>76.07457081209881</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>59.51727042875009</v>
+      </c>
+      <c r="N20">
+        <v>18.16457028308929</v>
+      </c>
+      <c r="O20">
+        <v>80.02522381166294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.66510103948437</v>
+        <v>12.23807606712919</v>
       </c>
       <c r="D21">
-        <v>21.80884209185005</v>
+        <v>17.14980735601108</v>
       </c>
       <c r="E21">
-        <v>8.247445303335818</v>
+        <v>20.48661661992623</v>
       </c>
       <c r="F21">
-        <v>137.163660962382</v>
+        <v>112.6534931302954</v>
       </c>
       <c r="G21">
-        <v>1.382074321966445</v>
+        <v>1.580485991575525</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,16 +1341,22 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>108.4448396291401</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>10.48859631260674</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>69.88554572803982</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>66.39875328447188</v>
+      </c>
+      <c r="N21">
+        <v>18.7743730375437</v>
+      </c>
+      <c r="O21">
+        <v>91.77257732162929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.66510103948437</v>
+        <v>12.23807606712919</v>
       </c>
       <c r="D22">
-        <v>21.80884209185005</v>
+        <v>17.14980735601108</v>
       </c>
       <c r="E22">
-        <v>8.247445303335818</v>
+        <v>20.48661661992623</v>
       </c>
       <c r="F22">
-        <v>137.163660962382</v>
+        <v>112.6534931302954</v>
       </c>
       <c r="G22">
-        <v>1.382074321966445</v>
+        <v>1.580485991575525</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,16 +1388,22 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>108.4448396291401</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>10.48859631260674</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>69.88554572803982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>66.39875328447188</v>
+      </c>
+      <c r="N22">
+        <v>18.7743730375437</v>
+      </c>
+      <c r="O22">
+        <v>91.77257732162929</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.66510103948437</v>
+        <v>12.23807606712919</v>
       </c>
       <c r="D23">
-        <v>21.80884209185005</v>
+        <v>17.14980735601108</v>
       </c>
       <c r="E23">
-        <v>8.247445303335818</v>
+        <v>20.48661661992623</v>
       </c>
       <c r="F23">
-        <v>137.163660962382</v>
+        <v>112.6534931302954</v>
       </c>
       <c r="G23">
-        <v>1.382074321966445</v>
+        <v>1.580485991575525</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,16 +1435,22 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>108.4448396291401</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>10.48859631260674</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>69.88554572803982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>66.39875328447188</v>
+      </c>
+      <c r="N23">
+        <v>18.7743730375437</v>
+      </c>
+      <c r="O23">
+        <v>91.77257732162929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.66510103948437</v>
+        <v>12.23807606712919</v>
       </c>
       <c r="D24">
-        <v>21.80884209185005</v>
+        <v>17.14980735601108</v>
       </c>
       <c r="E24">
-        <v>8.247445303335818</v>
+        <v>20.48661661992623</v>
       </c>
       <c r="F24">
-        <v>137.163660962382</v>
+        <v>112.6534931302954</v>
       </c>
       <c r="G24">
-        <v>1.382074321966445</v>
+        <v>1.580485991575525</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,16 +1482,22 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>108.4448396291401</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.48859631260674</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>69.88554572803982</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>66.39875328447188</v>
+      </c>
+      <c r="N24">
+        <v>18.7743730375437</v>
+      </c>
+      <c r="O24">
+        <v>91.77257732162929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.66510103948437</v>
+        <v>12.23807606712919</v>
       </c>
       <c r="D25">
-        <v>21.80884209185005</v>
+        <v>17.14980735601108</v>
       </c>
       <c r="E25">
-        <v>8.247445303335818</v>
+        <v>20.48661661992623</v>
       </c>
       <c r="F25">
-        <v>137.163660962382</v>
+        <v>112.6534931302954</v>
       </c>
       <c r="G25">
-        <v>1.382074321966445</v>
+        <v>1.580485991575525</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>108.4448396291401</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>10.48859631260674</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>69.88554572803982</v>
+        <v>66.39875328447188</v>
+      </c>
+      <c r="N25">
+        <v>18.7743730375437</v>
+      </c>
+      <c r="O25">
+        <v>91.77257732162929</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.103730891564789</v>
+        <v>3.391249894796344</v>
       </c>
       <c r="D2">
-        <v>10.82036087616422</v>
+        <v>1.959024106458539</v>
       </c>
       <c r="E2">
-        <v>15.47829495678631</v>
+        <v>6.148081305711643</v>
       </c>
       <c r="F2">
-        <v>73.02999801657168</v>
+        <v>39.66316260335904</v>
       </c>
       <c r="G2">
-        <v>1.843116961269629</v>
+        <v>2.145979756739842</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.5307076305477</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.99039365872402</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.56976069508369</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.529305906619668</v>
       </c>
       <c r="M2">
-        <v>46.15736751503261</v>
+        <v>17.25305220478929</v>
       </c>
       <c r="N2">
-        <v>16.43201211351015</v>
+        <v>14.62223247367967</v>
       </c>
       <c r="O2">
-        <v>59.33280903826898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.40559585746564</v>
+        <v>3.28900095865759</v>
       </c>
       <c r="D3">
-        <v>9.813500373991962</v>
+        <v>1.902848235510128</v>
       </c>
       <c r="E3">
-        <v>14.51350726662963</v>
+        <v>6.146959185814238</v>
       </c>
       <c r="F3">
-        <v>66.5483504546156</v>
+        <v>38.91541514555023</v>
       </c>
       <c r="G3">
-        <v>1.880329247478898</v>
+        <v>2.156541741966498</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>29.07106175851306</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.040685241768078</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.3696213746188</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.567253190221056</v>
       </c>
       <c r="M3">
-        <v>42.47941036708567</v>
+        <v>16.60075140516844</v>
       </c>
       <c r="N3">
-        <v>15.90458367229667</v>
+        <v>14.91229428993873</v>
       </c>
       <c r="O3">
-        <v>54.02943600867929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.97505465099681</v>
+        <v>3.225680486338952</v>
       </c>
       <c r="D4">
-        <v>9.200141255799386</v>
+        <v>1.86820953863215</v>
       </c>
       <c r="E4">
-        <v>13.90197015165435</v>
+        <v>6.1480965644754</v>
       </c>
       <c r="F4">
-        <v>62.58894537755506</v>
+        <v>38.48771236582038</v>
       </c>
       <c r="G4">
-        <v>1.902337583913608</v>
+        <v>2.163184319845527</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>28.81284676245598</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.073052596559624</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.61419579343148</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.5916133114298</v>
       </c>
       <c r="M4">
-        <v>40.17849336686115</v>
+        <v>16.1986102653764</v>
       </c>
       <c r="N4">
-        <v>15.57456293636099</v>
+        <v>15.0929921857052</v>
       </c>
       <c r="O4">
-        <v>50.78834793421292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.798185824279722</v>
+        <v>3.199770298773807</v>
       </c>
       <c r="D5">
-        <v>8.949804248256532</v>
+        <v>1.854049883843194</v>
       </c>
       <c r="E5">
-        <v>13.64737441392482</v>
+        <v>6.14901205857822</v>
       </c>
       <c r="F5">
-        <v>60.97152332124148</v>
+        <v>38.32115722757918</v>
       </c>
       <c r="G5">
-        <v>1.911174174234515</v>
+        <v>2.165933130215739</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>28.71349032033421</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.086617661719259</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>20.3020022203932</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.601809973509388</v>
       </c>
       <c r="M5">
-        <v>39.2262569058968</v>
+        <v>16.03451855710849</v>
       </c>
       <c r="N5">
-        <v>15.43878700418395</v>
+        <v>15.16733984176799</v>
       </c>
       <c r="O5">
-        <v>49.46388772217472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.768708430293431</v>
+        <v>3.195462396753791</v>
       </c>
       <c r="D6">
-        <v>8.908174105559736</v>
+        <v>1.851695844426017</v>
       </c>
       <c r="E6">
-        <v>13.60476152504685</v>
+        <v>6.14919116942167</v>
       </c>
       <c r="F6">
-        <v>60.70250147865296</v>
+        <v>38.29396319060148</v>
       </c>
       <c r="G6">
-        <v>1.912635406555692</v>
+        <v>2.166392163452979</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>28.69734159886544</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.088892814761917</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>20.2499103561169</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.603519499325276</v>
       </c>
       <c r="M6">
-        <v>39.06716426856791</v>
+        <v>16.00726430900026</v>
       </c>
       <c r="N6">
-        <v>15.4161711237322</v>
+        <v>15.17972983826432</v>
       </c>
       <c r="O6">
-        <v>49.24356195757814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.972676140887978</v>
+        <v>3.225331443638168</v>
       </c>
       <c r="D7">
-        <v>9.196768483715077</v>
+        <v>1.868018763358024</v>
       </c>
       <c r="E7">
-        <v>13.89855897570889</v>
+        <v>6.148107090349617</v>
       </c>
       <c r="F7">
-        <v>62.56715810641057</v>
+        <v>38.4854350407843</v>
       </c>
       <c r="G7">
-        <v>1.902457203496037</v>
+        <v>2.163221218655116</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>28.81148327502948</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.073234019682004</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>20.61000259888384</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.591749731121926</v>
       </c>
       <c r="M7">
-        <v>40.16571459082616</v>
+        <v>16.19639786915244</v>
       </c>
       <c r="N7">
-        <v>15.57273669694619</v>
+        <v>15.0939919077566</v>
       </c>
       <c r="O7">
-        <v>50.77050901206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.86273675319389</v>
+        <v>3.356122868224265</v>
       </c>
       <c r="D8">
-        <v>10.47104684270794</v>
+        <v>1.939680050795633</v>
       </c>
       <c r="E8">
-        <v>15.14917194193139</v>
+        <v>6.147310864550127</v>
       </c>
       <c r="F8">
-        <v>70.78443168324044</v>
+        <v>39.39872343386527</v>
       </c>
       <c r="G8">
-        <v>1.856178265103533</v>
+        <v>2.149590288293886</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29.36713869675923</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.007425847087769</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.15996290311848</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.542171960426407</v>
       </c>
       <c r="M8">
-        <v>44.89532446400407</v>
+        <v>17.02858433809096</v>
       </c>
       <c r="N8">
-        <v>16.251600666225</v>
+        <v>14.72174275835983</v>
       </c>
       <c r="O8">
-        <v>57.49569123822229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.660784030902629</v>
+        <v>3.607214167329149</v>
       </c>
       <c r="D9">
-        <v>13.12440917450781</v>
+        <v>2.07949442782551</v>
       </c>
       <c r="E9">
-        <v>17.49957797628175</v>
+        <v>6.160588725201009</v>
       </c>
       <c r="F9">
-        <v>87.72349739211653</v>
+        <v>41.44603192898118</v>
       </c>
       <c r="G9">
-        <v>1.753057072067194</v>
+        <v>2.123995635176589</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>30.65467324347729</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.890148966833054</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>25.04244917266864</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.453215780412698</v>
       </c>
       <c r="M9">
-        <v>54.10789482606425</v>
+        <v>18.64050564949902</v>
       </c>
       <c r="N9">
-        <v>17.52016799575752</v>
+        <v>14.00952907479146</v>
       </c>
       <c r="O9">
-        <v>71.35261806980337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.21093308679579</v>
+        <v>3.787174237482892</v>
       </c>
       <c r="D10">
-        <v>15.50924439097514</v>
+        <v>2.182611639713095</v>
       </c>
       <c r="E10">
-        <v>19.3376351077745</v>
+        <v>6.179911694504432</v>
       </c>
       <c r="F10">
-        <v>102.6338803574578</v>
+        <v>43.11660546119768</v>
       </c>
       <c r="G10">
-        <v>1.653027078083522</v>
+        <v>2.105707911535892</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>31.73158531148147</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.811126262725966</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>27.05613515595143</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.392679286331207</v>
       </c>
       <c r="M10">
-        <v>61.64183857076141</v>
+        <v>19.80527719512752</v>
       </c>
       <c r="N10">
-        <v>18.38318312356682</v>
+        <v>13.49275796099706</v>
       </c>
       <c r="O10">
-        <v>83.55855345322506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.12069997473162</v>
+        <v>3.867880253810894</v>
       </c>
       <c r="D11">
-        <v>16.95952637535212</v>
+        <v>2.22985736364215</v>
       </c>
       <c r="E11">
-        <v>20.35674901852772</v>
+        <v>6.190906950122656</v>
       </c>
       <c r="F11">
-        <v>111.5030503131827</v>
+        <v>43.91522609718611</v>
       </c>
       <c r="G11">
-        <v>1.589046215092686</v>
+        <v>2.097456166241743</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>32.25232792496461</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.776724586125405</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27.9491377369392</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.366133717999376</v>
       </c>
       <c r="M11">
-        <v>65.86540811674998</v>
+        <v>20.33003333594522</v>
       </c>
       <c r="N11">
-        <v>18.73846748947832</v>
+        <v>13.25800602837984</v>
       </c>
       <c r="O11">
-        <v>90.8287868860379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.55416501332295</v>
+        <v>3.898265197030484</v>
       </c>
       <c r="D12">
-        <v>17.66619203722037</v>
+        <v>2.247822672834471</v>
       </c>
       <c r="E12">
-        <v>20.83599968788461</v>
+        <v>6.195399374516333</v>
       </c>
       <c r="F12">
-        <v>115.7585778499279</v>
+        <v>44.22344675350368</v>
       </c>
       <c r="G12">
-        <v>1.557070088410551</v>
+        <v>2.094336947887455</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>32.45417495597372</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.7639202362981</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>28.28401943798663</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.356219670785446</v>
       </c>
       <c r="M12">
-        <v>67.82122627466389</v>
+        <v>20.52798088220282</v>
       </c>
       <c r="N12">
-        <v>18.858632615525</v>
+        <v>13.16906077748363</v>
       </c>
       <c r="O12">
-        <v>94.32091524199332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.45375192891687</v>
+        <v>3.891729226139609</v>
       </c>
       <c r="D13">
-        <v>17.501506687197</v>
+        <v>2.243949747780773</v>
       </c>
       <c r="E13">
-        <v>20.72499360016608</v>
+        <v>6.194417029904615</v>
       </c>
       <c r="F13">
-        <v>114.7710676310542</v>
+        <v>44.15680363837375</v>
       </c>
       <c r="G13">
-        <v>1.564566892232488</v>
+        <v>2.095008552676252</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>32.41049287869691</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.766667960258137</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>28.21204136210168</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.358348769727598</v>
       </c>
       <c r="M13">
-        <v>67.3715544602577</v>
+        <v>20.48538354500712</v>
       </c>
       <c r="N13">
-        <v>18.83387768457812</v>
+        <v>13.18822059272487</v>
       </c>
       <c r="O13">
-        <v>93.51029980483358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.15363702733126</v>
+        <v>3.870383623976649</v>
       </c>
       <c r="D14">
-        <v>17.01284334202088</v>
+        <v>2.231333723577061</v>
       </c>
       <c r="E14">
-        <v>20.39320876155839</v>
+        <v>6.191269884555071</v>
       </c>
       <c r="F14">
-        <v>111.8257358543572</v>
+        <v>43.9404658127575</v>
       </c>
       <c r="G14">
-        <v>1.586651391821335</v>
+        <v>2.097199460883975</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>32.26883940344857</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.775666694758341</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>27.97675397645973</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.365315341624441</v>
       </c>
       <c r="M14">
-        <v>66.01534669461418</v>
+        <v>20.34633401306681</v>
       </c>
       <c r="N14">
-        <v>18.74878818676193</v>
+        <v>13.25069003748177</v>
       </c>
       <c r="O14">
-        <v>91.09348938545988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.98555173097314</v>
+        <v>3.857285595395487</v>
       </c>
       <c r="D15">
-        <v>16.74138010079965</v>
+        <v>2.223616584492966</v>
       </c>
       <c r="E15">
-        <v>20.20695502832496</v>
+        <v>6.189385348379363</v>
       </c>
       <c r="F15">
-        <v>110.1801548827208</v>
+        <v>43.80871590968385</v>
       </c>
       <c r="G15">
-        <v>1.598813851259824</v>
+        <v>2.098542044740945</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>32.18268544479315</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.781207718113164</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>27.83220860750311</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.369600420922231</v>
       </c>
       <c r="M15">
-        <v>65.24794314265503</v>
+        <v>20.26106202920387</v>
       </c>
       <c r="N15">
-        <v>18.69415265435745</v>
+        <v>13.28894484600138</v>
       </c>
       <c r="O15">
-        <v>89.74375522116793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.15835747162141</v>
+        <v>3.781875633806035</v>
       </c>
       <c r="D16">
-        <v>15.42667151580914</v>
+        <v>2.179532907478465</v>
       </c>
       <c r="E16">
-        <v>19.27770999252018</v>
+        <v>6.179238471661176</v>
       </c>
       <c r="F16">
-        <v>102.1239384032755</v>
+        <v>43.06521135741816</v>
       </c>
       <c r="G16">
-        <v>1.656600552492871</v>
+        <v>2.106248195102926</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>31.69819227314124</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.813405638289323</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.99731336600164</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.394433696621745</v>
       </c>
       <c r="M16">
-        <v>61.39307616443664</v>
+        <v>19.77087687211123</v>
       </c>
       <c r="N16">
-        <v>18.35880759639095</v>
+        <v>13.50809808953235</v>
       </c>
       <c r="O16">
-        <v>83.14081432666869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.72024312606751</v>
+        <v>3.735308756272667</v>
       </c>
       <c r="D17">
-        <v>14.74343768151584</v>
+        <v>2.152592264383301</v>
       </c>
       <c r="E17">
-        <v>18.77247574925612</v>
+        <v>6.173586411716058</v>
       </c>
       <c r="F17">
-        <v>97.88587942479654</v>
+        <v>42.61915685758311</v>
       </c>
       <c r="G17">
-        <v>1.685872030990347</v>
+        <v>2.110990132846531</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>31.40901906582372</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.833554250511265</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>26.47923809821037</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.409919247332601</v>
       </c>
       <c r="M17">
-        <v>59.30110290876848</v>
+        <v>19.46882272389276</v>
       </c>
       <c r="N17">
-        <v>18.14107488727894</v>
+        <v>13.64255969819955</v>
       </c>
       <c r="O17">
-        <v>79.66997523199159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.48310786870035</v>
+        <v>3.708415989004475</v>
       </c>
       <c r="D18">
-        <v>14.3771061220973</v>
+        <v>2.137126630230918</v>
       </c>
       <c r="E18">
-        <v>18.49420651350298</v>
+        <v>6.170542291532587</v>
       </c>
       <c r="F18">
-        <v>95.60050969298649</v>
+        <v>42.36622122434608</v>
       </c>
       <c r="G18">
-        <v>1.701345326425189</v>
+        <v>2.113724193182225</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>31.24558373377874</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.845288679648266</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>26.17908126337816</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.418919868107136</v>
       </c>
       <c r="M18">
-        <v>58.1549226443349</v>
+        <v>19.29460848116452</v>
       </c>
       <c r="N18">
-        <v>18.0129856527132</v>
+        <v>13.71993585338284</v>
       </c>
       <c r="O18">
-        <v>77.79894838606067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.40479744702414</v>
+        <v>3.699292263098789</v>
       </c>
       <c r="D19">
-        <v>14.25664748597116</v>
+        <v>2.131894659475127</v>
       </c>
       <c r="E19">
-        <v>18.40151275143541</v>
+        <v>6.169546785746101</v>
       </c>
       <c r="F19">
-        <v>94.84713788360116</v>
+        <v>42.28119721592299</v>
       </c>
       <c r="G19">
-        <v>1.706399067353711</v>
+        <v>2.114651155382176</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>31.19073741803088</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.849286733547699</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>26.07707992383785</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.421983557043646</v>
       </c>
       <c r="M19">
-        <v>57.77431946516857</v>
+        <v>19.23554153345975</v>
       </c>
       <c r="N19">
-        <v>17.96920822238275</v>
+        <v>13.74614332508634</v>
       </c>
       <c r="O19">
-        <v>77.18224866903614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.76519105713921</v>
+        <v>3.740277219877729</v>
       </c>
       <c r="D20">
-        <v>14.81314413990452</v>
+        <v>2.155456874166519</v>
       </c>
       <c r="E20">
-        <v>18.82482326686534</v>
+        <v>6.174166599941285</v>
       </c>
       <c r="F20">
-        <v>98.31974233464106</v>
+        <v>42.66626354192012</v>
       </c>
       <c r="G20">
-        <v>1.682910102292682</v>
+        <v>2.11048468856643</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>31.43950151453909</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.831394337406638</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>26.53461300144346</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.408261114043028</v>
       </c>
       <c r="M20">
-        <v>59.51727042875009</v>
+        <v>19.50102699894497</v>
       </c>
       <c r="N20">
-        <v>18.16457028308929</v>
+        <v>13.62824283497074</v>
       </c>
       <c r="O20">
-        <v>80.02522381166294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.23807606712919</v>
+        <v>3.876658197732154</v>
       </c>
       <c r="D21">
-        <v>17.14980735601108</v>
+        <v>2.235037105780531</v>
       </c>
       <c r="E21">
-        <v>20.48661661992623</v>
+        <v>6.192185255923727</v>
       </c>
       <c r="F21">
-        <v>112.6534931302954</v>
+        <v>44.00384991926804</v>
       </c>
       <c r="G21">
-        <v>1.580485991575525</v>
+        <v>2.096555823364462</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>32.31031830992634</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.77301749524552</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>28.0459520250622</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.363265378814912</v>
       </c>
       <c r="M21">
-        <v>66.39875328447188</v>
+        <v>20.38719710532302</v>
       </c>
       <c r="N21">
-        <v>18.7743730375437</v>
+        <v>13.23234342034411</v>
       </c>
       <c r="O21">
-        <v>91.77257732162929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.23807606712919</v>
+        <v>3.964759801039154</v>
       </c>
       <c r="D22">
-        <v>17.14980735601108</v>
+        <v>2.287496692900153</v>
       </c>
       <c r="E22">
-        <v>20.48661661992623</v>
+        <v>6.205884095926625</v>
       </c>
       <c r="F22">
-        <v>112.6534931302954</v>
+        <v>44.91199545844288</v>
       </c>
       <c r="G22">
-        <v>1.580485991575525</v>
+        <v>2.087482479382078</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.90669213251901</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.736164133545715</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>29.01464342468009</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.334661076957826</v>
       </c>
       <c r="M22">
-        <v>66.39875328447188</v>
+        <v>20.96190525231424</v>
       </c>
       <c r="N22">
-        <v>18.7743730375437</v>
+        <v>12.9732579397915</v>
       </c>
       <c r="O22">
-        <v>91.77257732162929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.23807606712919</v>
+        <v>3.917834834676333</v>
       </c>
       <c r="D23">
-        <v>17.14980735601108</v>
+        <v>2.259447011484233</v>
       </c>
       <c r="E23">
-        <v>20.48661661992623</v>
+        <v>6.198392662485566</v>
       </c>
       <c r="F23">
-        <v>112.6534931302954</v>
+        <v>44.42410243383333</v>
       </c>
       <c r="G23">
-        <v>1.580485991575525</v>
+        <v>2.092323860510843</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>32.58582382400088</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.755714315488591</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>28.4993522487818</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.349855876285841</v>
       </c>
       <c r="M23">
-        <v>66.39875328447188</v>
+        <v>20.6555816268997</v>
       </c>
       <c r="N23">
-        <v>18.7743730375437</v>
+        <v>13.11160270204827</v>
       </c>
       <c r="O23">
-        <v>91.77257732162929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.23807606712919</v>
+        <v>3.738031353077646</v>
       </c>
       <c r="D24">
-        <v>17.14980735601108</v>
+        <v>2.154161714641093</v>
       </c>
       <c r="E24">
-        <v>20.48661661992623</v>
+        <v>6.173903658169272</v>
       </c>
       <c r="F24">
-        <v>112.6534931302954</v>
+        <v>42.6449557037789</v>
       </c>
       <c r="G24">
-        <v>1.580485991575525</v>
+        <v>2.110713175144682</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>31.42571164988625</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.832370364683684</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>26.50958519982946</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.409010451226592</v>
       </c>
       <c r="M24">
-        <v>66.39875328447188</v>
+        <v>19.4864691853535</v>
       </c>
       <c r="N24">
-        <v>18.7743730375437</v>
+        <v>13.63471525615006</v>
       </c>
       <c r="O24">
-        <v>91.77257732162929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.23807606712919</v>
+        <v>3.540005385423799</v>
       </c>
       <c r="D25">
-        <v>17.14980735601108</v>
+        <v>2.041673017118166</v>
       </c>
       <c r="E25">
-        <v>20.48661661992623</v>
+        <v>6.15535657811107</v>
       </c>
       <c r="F25">
-        <v>112.6534931302954</v>
+        <v>40.86372060102765</v>
       </c>
       <c r="G25">
-        <v>1.580485991575525</v>
+        <v>2.130815161532239</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>30.28412448927966</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.920619698873293</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>24.28057407351051</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.476417680113354</v>
       </c>
       <c r="M25">
-        <v>66.39875328447188</v>
+        <v>18.20745029927636</v>
       </c>
       <c r="N25">
-        <v>18.7743730375437</v>
+        <v>14.20072524934151</v>
       </c>
       <c r="O25">
-        <v>91.77257732162929</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.391249894796344</v>
+        <v>5.731479089984926</v>
       </c>
       <c r="D2">
-        <v>1.959024106458539</v>
+        <v>4.02689124726781</v>
       </c>
       <c r="E2">
-        <v>6.148081305711643</v>
+        <v>11.01902685770507</v>
       </c>
       <c r="F2">
-        <v>39.66316260335904</v>
+        <v>56.16118677529693</v>
       </c>
       <c r="G2">
-        <v>2.145979756739842</v>
+        <v>3.802523705940218</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.5307076305477</v>
+        <v>42.95582160415511</v>
       </c>
       <c r="J2">
-        <v>5.99039365872402</v>
+        <v>10.60403210761356</v>
       </c>
       <c r="K2">
-        <v>22.56976069508369</v>
+        <v>25.62879259690334</v>
       </c>
       <c r="L2">
-        <v>5.529305906619668</v>
+        <v>9.867943274947429</v>
       </c>
       <c r="M2">
-        <v>17.25305220478929</v>
+        <v>23.92797326314158</v>
       </c>
       <c r="N2">
-        <v>14.62223247367967</v>
+        <v>22.64909153021994</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.28900095865759</v>
+        <v>5.725182230911743</v>
       </c>
       <c r="D3">
-        <v>1.902848235510128</v>
+        <v>4.019402723893896</v>
       </c>
       <c r="E3">
-        <v>6.146959185814238</v>
+        <v>11.03588353161569</v>
       </c>
       <c r="F3">
-        <v>38.91541514555023</v>
+        <v>56.20999551745348</v>
       </c>
       <c r="G3">
-        <v>2.156541741966498</v>
+        <v>3.80634970767164</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.07106175851306</v>
+        <v>43.01081578281017</v>
       </c>
       <c r="J3">
-        <v>6.040685241768078</v>
+        <v>10.62664280277311</v>
       </c>
       <c r="K3">
-        <v>21.3696213746188</v>
+        <v>25.43920873063569</v>
       </c>
       <c r="L3">
-        <v>5.567253190221056</v>
+        <v>9.885333192104879</v>
       </c>
       <c r="M3">
-        <v>16.60075140516844</v>
+        <v>23.87581170368316</v>
       </c>
       <c r="N3">
-        <v>14.91229428993873</v>
+        <v>22.72651391446256</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.225680486338952</v>
+        <v>5.721888546999986</v>
       </c>
       <c r="D4">
-        <v>1.86820953863215</v>
+        <v>4.014799772495461</v>
       </c>
       <c r="E4">
-        <v>6.1480965644754</v>
+        <v>11.04716737126437</v>
       </c>
       <c r="F4">
-        <v>38.48771236582038</v>
+        <v>56.25248126831443</v>
       </c>
       <c r="G4">
-        <v>2.163184319845527</v>
+        <v>3.808821134555174</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.81284676245598</v>
+        <v>43.05367142107981</v>
       </c>
       <c r="J4">
-        <v>6.073052596559624</v>
+        <v>10.64137200155491</v>
       </c>
       <c r="K4">
-        <v>20.61419579343148</v>
+        <v>25.32813615207136</v>
       </c>
       <c r="L4">
-        <v>5.5916133114298</v>
+        <v>9.896654487478134</v>
       </c>
       <c r="M4">
-        <v>16.1986102653764</v>
+        <v>23.84827883766341</v>
       </c>
       <c r="N4">
-        <v>15.0929921857052</v>
+        <v>22.77611961278301</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.199770298773807</v>
+        <v>5.720691404535427</v>
       </c>
       <c r="D5">
-        <v>1.854049883843194</v>
+        <v>4.012922941342502</v>
       </c>
       <c r="E5">
-        <v>6.14901205857822</v>
+        <v>11.05200092519305</v>
       </c>
       <c r="F5">
-        <v>38.32115722757918</v>
+        <v>56.27293405300129</v>
       </c>
       <c r="G5">
-        <v>2.165933130215739</v>
+        <v>3.809859116249618</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.71349032033421</v>
+        <v>43.07341485935435</v>
       </c>
       <c r="J5">
-        <v>6.086617661719259</v>
+        <v>10.64758757930673</v>
       </c>
       <c r="K5">
-        <v>20.3020022203932</v>
+        <v>25.28425428505371</v>
       </c>
       <c r="L5">
-        <v>5.601809973509388</v>
+        <v>9.901430377712888</v>
       </c>
       <c r="M5">
-        <v>16.03451855710849</v>
+        <v>23.83819642386317</v>
       </c>
       <c r="N5">
-        <v>15.16733984176799</v>
+        <v>22.79685617482015</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.195462396753791</v>
+        <v>5.720501411572102</v>
       </c>
       <c r="D6">
-        <v>1.851695844426017</v>
+        <v>4.012611233715199</v>
       </c>
       <c r="E6">
-        <v>6.14919116942167</v>
+        <v>11.05281775897998</v>
       </c>
       <c r="F6">
-        <v>38.29396319060148</v>
+        <v>56.27651958286047</v>
       </c>
       <c r="G6">
-        <v>2.166392163452979</v>
+        <v>3.810033339283026</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.69734159886544</v>
+        <v>43.07683072272353</v>
       </c>
       <c r="J6">
-        <v>6.088892814761917</v>
+        <v>10.64863257057145</v>
       </c>
       <c r="K6">
-        <v>20.2499103561169</v>
+        <v>25.27705227492341</v>
       </c>
       <c r="L6">
-        <v>5.603519499325276</v>
+        <v>9.90223323148385</v>
       </c>
       <c r="M6">
-        <v>16.00726430900026</v>
+        <v>23.83659113996031</v>
       </c>
       <c r="N6">
-        <v>15.17972983826432</v>
+        <v>22.80033103598908</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.225331443638168</v>
+        <v>5.721871813177932</v>
       </c>
       <c r="D7">
-        <v>1.868018763358024</v>
+        <v>4.014774465080883</v>
       </c>
       <c r="E7">
-        <v>6.148107090349617</v>
+        <v>11.04723160489356</v>
       </c>
       <c r="F7">
-        <v>38.4854350407843</v>
+        <v>56.25274440170626</v>
       </c>
       <c r="G7">
-        <v>2.163221218655116</v>
+        <v>3.80883500805607</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.81148327502948</v>
+        <v>43.05392846740958</v>
       </c>
       <c r="J7">
-        <v>6.073234019682004</v>
+        <v>10.64145496261515</v>
       </c>
       <c r="K7">
-        <v>20.61000259888384</v>
+        <v>25.32753870267128</v>
       </c>
       <c r="L7">
-        <v>5.591749731121926</v>
+        <v>9.896718238739913</v>
       </c>
       <c r="M7">
-        <v>16.19639786915244</v>
+        <v>23.84813824836223</v>
       </c>
       <c r="N7">
-        <v>15.0939919077566</v>
+        <v>22.77639715807236</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.356122868224265</v>
+        <v>5.729189743963353</v>
       </c>
       <c r="D8">
-        <v>1.939680050795633</v>
+        <v>4.024310328162263</v>
       </c>
       <c r="E8">
-        <v>6.147310864550127</v>
+        <v>11.02464553015196</v>
       </c>
       <c r="F8">
-        <v>39.39872343386527</v>
+        <v>56.17541365771034</v>
       </c>
       <c r="G8">
-        <v>2.149590288293886</v>
+        <v>3.803817608667375</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.36713869675923</v>
+        <v>42.97289370500125</v>
       </c>
       <c r="J8">
-        <v>6.007425847087769</v>
+        <v>10.6116529841028</v>
       </c>
       <c r="K8">
-        <v>22.15996290311848</v>
+        <v>25.56234211739426</v>
       </c>
       <c r="L8">
-        <v>5.542171960426407</v>
+        <v>9.873805981831973</v>
       </c>
       <c r="M8">
-        <v>17.02858433809096</v>
+        <v>23.90905974411119</v>
       </c>
       <c r="N8">
-        <v>14.72174275835983</v>
+        <v>22.67535864307632</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.607214167329149</v>
+        <v>5.748035164050976</v>
       </c>
       <c r="D9">
-        <v>2.07949442782551</v>
+        <v>4.042964627409118</v>
       </c>
       <c r="E9">
-        <v>6.160588725201009</v>
+        <v>10.98774171865541</v>
       </c>
       <c r="F9">
-        <v>41.44603192898118</v>
+        <v>56.12339727895037</v>
       </c>
       <c r="G9">
-        <v>2.123995635176589</v>
+        <v>3.794943214276279</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.65467324347729</v>
+        <v>42.88635005785621</v>
       </c>
       <c r="J9">
-        <v>5.890148966833054</v>
+        <v>10.55990072391069</v>
       </c>
       <c r="K9">
-        <v>25.04244917266864</v>
+        <v>26.06322709695331</v>
       </c>
       <c r="L9">
-        <v>5.453215780412698</v>
+        <v>9.833961943326148</v>
       </c>
       <c r="M9">
-        <v>18.64050564949902</v>
+        <v>24.06383149247712</v>
       </c>
       <c r="N9">
-        <v>14.00952907479146</v>
+        <v>22.49354703651725</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.787174237482892</v>
+        <v>5.76455423165743</v>
       </c>
       <c r="D10">
-        <v>2.182611639713095</v>
+        <v>4.056635335391732</v>
       </c>
       <c r="E10">
-        <v>6.179911694504432</v>
+        <v>10.96510289592221</v>
       </c>
       <c r="F10">
-        <v>43.11660546119768</v>
+        <v>56.14627691363739</v>
       </c>
       <c r="G10">
-        <v>2.105707911535892</v>
+        <v>3.789003951717646</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.73158531148147</v>
+        <v>42.86718621184222</v>
       </c>
       <c r="J10">
-        <v>5.811126262725966</v>
+        <v>10.52592252781314</v>
       </c>
       <c r="K10">
-        <v>27.05613515595143</v>
+        <v>26.45322441267437</v>
       </c>
       <c r="L10">
-        <v>5.392679286331207</v>
+        <v>9.807759746529724</v>
       </c>
       <c r="M10">
-        <v>19.80527719512752</v>
+        <v>24.198531808223</v>
       </c>
       <c r="N10">
-        <v>13.49275796099706</v>
+        <v>22.36980143732798</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.867880253810894</v>
+        <v>5.772634411997551</v>
       </c>
       <c r="D11">
-        <v>2.22985736364215</v>
+        <v>4.06284561247729</v>
       </c>
       <c r="E11">
-        <v>6.190906950122656</v>
+        <v>10.95576929512785</v>
       </c>
       <c r="F11">
-        <v>43.91522609718611</v>
+        <v>56.17000205938</v>
       </c>
       <c r="G11">
-        <v>2.097456166241743</v>
+        <v>3.786426561563768</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.25232792496461</v>
+        <v>42.86816367756005</v>
       </c>
       <c r="J11">
-        <v>5.776724586125405</v>
+        <v>10.51133599100286</v>
       </c>
       <c r="K11">
-        <v>27.9491377369392</v>
+        <v>26.63482117785957</v>
       </c>
       <c r="L11">
-        <v>5.366133717999376</v>
+        <v>9.796500251924906</v>
       </c>
       <c r="M11">
-        <v>20.33003333594522</v>
+        <v>24.26423606293308</v>
       </c>
       <c r="N11">
-        <v>13.25800602837984</v>
+        <v>22.31561528824556</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.898265197030484</v>
+        <v>5.77577409891301</v>
       </c>
       <c r="D12">
-        <v>2.247822672834471</v>
+        <v>4.065195903929065</v>
       </c>
       <c r="E12">
-        <v>6.195399374516333</v>
+        <v>10.95237315485053</v>
       </c>
       <c r="F12">
-        <v>44.22344675350368</v>
+        <v>56.18090269434279</v>
       </c>
       <c r="G12">
-        <v>2.094336947887455</v>
+        <v>3.785468340360176</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.45417495597372</v>
+        <v>42.86993064549772</v>
       </c>
       <c r="J12">
-        <v>5.7639202362981</v>
+        <v>10.50593705917439</v>
       </c>
       <c r="K12">
-        <v>28.28401943798663</v>
+        <v>26.70413672339683</v>
       </c>
       <c r="L12">
-        <v>5.356219670785446</v>
+        <v>9.792330998962653</v>
       </c>
       <c r="M12">
-        <v>20.52798088220282</v>
+        <v>24.28974073889231</v>
       </c>
       <c r="N12">
-        <v>13.16906077748363</v>
+        <v>22.29539736732192</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.891729226139609</v>
+        <v>5.775094380993319</v>
       </c>
       <c r="D13">
-        <v>2.243949747780773</v>
+        <v>4.064689791818415</v>
       </c>
       <c r="E13">
-        <v>6.194417029904615</v>
+        <v>10.95309843122288</v>
       </c>
       <c r="F13">
-        <v>44.15680363837375</v>
+        <v>56.17846980558304</v>
       </c>
       <c r="G13">
-        <v>2.095008552676252</v>
+        <v>3.785673921386727</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.41049287869691</v>
+        <v>42.86948793951495</v>
       </c>
       <c r="J13">
-        <v>5.766667960258137</v>
+        <v>10.50709427841</v>
       </c>
       <c r="K13">
-        <v>28.21204136210168</v>
+        <v>26.6891848250873</v>
       </c>
       <c r="L13">
-        <v>5.358348769727598</v>
+        <v>9.793224727368424</v>
       </c>
       <c r="M13">
-        <v>20.48538354500712</v>
+        <v>24.28422031649482</v>
       </c>
       <c r="N13">
-        <v>13.18822059272487</v>
+        <v>22.29973828931443</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.870383623976649</v>
+        <v>5.772891123026684</v>
       </c>
       <c r="D14">
-        <v>2.231333723577061</v>
+        <v>4.063039001505179</v>
       </c>
       <c r="E14">
-        <v>6.191269884555071</v>
+        <v>10.95548712369698</v>
       </c>
       <c r="F14">
-        <v>43.9404658127575</v>
+        <v>56.17086044970853</v>
       </c>
       <c r="G14">
-        <v>2.097199460883975</v>
+        <v>3.786347372406393</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.26883940344857</v>
+        <v>42.86828104032099</v>
       </c>
       <c r="J14">
-        <v>5.775666694758341</v>
+        <v>10.51088932171094</v>
       </c>
       <c r="K14">
-        <v>27.97675397645973</v>
+        <v>26.64051311734076</v>
       </c>
       <c r="L14">
-        <v>5.365315341624441</v>
+        <v>9.796155354075058</v>
       </c>
       <c r="M14">
-        <v>20.34633401306681</v>
+        <v>24.26632192086828</v>
       </c>
       <c r="N14">
-        <v>13.25069003748177</v>
+        <v>22.31394592093425</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.857285595395487</v>
+        <v>5.771551925665777</v>
       </c>
       <c r="D15">
-        <v>2.223616584492966</v>
+        <v>4.062027656711187</v>
       </c>
       <c r="E15">
-        <v>6.189385348379363</v>
+        <v>10.95696826276616</v>
       </c>
       <c r="F15">
-        <v>43.80871590968385</v>
+        <v>56.16644909484955</v>
       </c>
       <c r="G15">
-        <v>2.098542044740945</v>
+        <v>3.786762192905863</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.18268544479315</v>
+        <v>42.86772375238404</v>
       </c>
       <c r="J15">
-        <v>5.781207718113164</v>
+        <v>10.513230117363</v>
       </c>
       <c r="K15">
-        <v>27.83220860750311</v>
+        <v>26.61077017291432</v>
       </c>
       <c r="L15">
-        <v>5.369600420922231</v>
+        <v>9.797962737877668</v>
       </c>
       <c r="M15">
-        <v>20.26106202920387</v>
+        <v>24.25543949020305</v>
       </c>
       <c r="N15">
-        <v>13.28894484600138</v>
+        <v>22.32268768030704</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.781875633806035</v>
+        <v>5.76403743249582</v>
       </c>
       <c r="D16">
-        <v>2.179532907478465</v>
+        <v>4.056229291665659</v>
       </c>
       <c r="E16">
-        <v>6.179238471661176</v>
+        <v>10.96573224577273</v>
       </c>
       <c r="F16">
-        <v>43.06521135741816</v>
+        <v>56.14499455067242</v>
       </c>
       <c r="G16">
-        <v>2.106248195102926</v>
+        <v>3.789174884302995</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.69819227314124</v>
+        <v>42.86731767080395</v>
       </c>
       <c r="J16">
-        <v>5.813405638289323</v>
+        <v>10.52689326434428</v>
       </c>
       <c r="K16">
-        <v>26.99731336600164</v>
+        <v>26.44143633831197</v>
       </c>
       <c r="L16">
-        <v>5.394433696621745</v>
+        <v>9.80850882482032</v>
       </c>
       <c r="M16">
-        <v>19.77087687211123</v>
+        <v>24.19432590776477</v>
       </c>
       <c r="N16">
-        <v>13.50809808953235</v>
+        <v>22.37338486978287</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.735308756272667</v>
+        <v>5.759571389314468</v>
       </c>
       <c r="D17">
-        <v>2.152592264383301</v>
+        <v>4.052669859605832</v>
       </c>
       <c r="E17">
-        <v>6.173586411716058</v>
+        <v>10.971355474793</v>
       </c>
       <c r="F17">
-        <v>42.61915685758311</v>
+        <v>56.1352451992762</v>
       </c>
       <c r="G17">
-        <v>2.110990132846531</v>
+        <v>3.790686778675214</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.40901906582372</v>
+        <v>42.86955388045233</v>
       </c>
       <c r="J17">
-        <v>5.833554250511265</v>
+        <v>10.53549772971628</v>
       </c>
       <c r="K17">
-        <v>26.47923809821037</v>
+        <v>26.33858996518796</v>
       </c>
       <c r="L17">
-        <v>5.409919247332601</v>
+        <v>9.815147241980029</v>
       </c>
       <c r="M17">
-        <v>19.46882272389276</v>
+        <v>24.15796001201663</v>
       </c>
       <c r="N17">
-        <v>13.64255969819955</v>
+        <v>22.40502423183212</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.708415989004475</v>
+        <v>5.757055962712332</v>
       </c>
       <c r="D18">
-        <v>2.137126630230918</v>
+        <v>4.050621769317337</v>
       </c>
       <c r="E18">
-        <v>6.170542291532587</v>
+        <v>10.97468065727624</v>
       </c>
       <c r="F18">
-        <v>42.36622122434608</v>
+        <v>56.13089110132214</v>
       </c>
       <c r="G18">
-        <v>2.113724193182225</v>
+        <v>3.791568096923874</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.24558373377874</v>
+        <v>42.87175253908347</v>
       </c>
       <c r="J18">
-        <v>5.845288679648266</v>
+        <v>10.54052873698246</v>
       </c>
       <c r="K18">
-        <v>26.17908126337816</v>
+        <v>26.27983260324737</v>
       </c>
       <c r="L18">
-        <v>5.418919868107136</v>
+        <v>9.819027633661348</v>
       </c>
       <c r="M18">
-        <v>19.29460848116452</v>
+        <v>24.13746095897609</v>
       </c>
       <c r="N18">
-        <v>13.71993585338284</v>
+        <v>22.42342071581415</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.699292263098789</v>
+        <v>5.756213483590076</v>
       </c>
       <c r="D19">
-        <v>2.131894659475127</v>
+        <v>4.049928189089537</v>
       </c>
       <c r="E19">
-        <v>6.169546785746101</v>
+        <v>10.97582212452632</v>
       </c>
       <c r="F19">
-        <v>42.28119721592299</v>
+        <v>56.12963209536112</v>
       </c>
       <c r="G19">
-        <v>2.114651155382176</v>
+        <v>3.79186851181958</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.19073741803088</v>
+        <v>42.87265358655048</v>
       </c>
       <c r="J19">
-        <v>5.849286733547699</v>
+        <v>10.54224623858526</v>
       </c>
       <c r="K19">
-        <v>26.07707992383785</v>
+        <v>26.26000818224785</v>
       </c>
       <c r="L19">
-        <v>5.421983557043646</v>
+        <v>9.820352155227356</v>
       </c>
       <c r="M19">
-        <v>19.23554153345975</v>
+        <v>24.13059244271511</v>
       </c>
       <c r="N19">
-        <v>13.74614332508634</v>
+        <v>22.42968356934252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.740277219877729</v>
+        <v>5.760041298659803</v>
       </c>
       <c r="D20">
-        <v>2.155456874166519</v>
+        <v>4.053048851131634</v>
       </c>
       <c r="E20">
-        <v>6.174166599941285</v>
+        <v>10.97074747319205</v>
       </c>
       <c r="F20">
-        <v>42.66626354192012</v>
+        <v>56.13615329022647</v>
       </c>
       <c r="G20">
-        <v>2.11048468856643</v>
+        <v>3.790524623114154</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.43950151453909</v>
+        <v>42.86922137544589</v>
       </c>
       <c r="J20">
-        <v>5.831394337406638</v>
+        <v>10.53457329204944</v>
       </c>
       <c r="K20">
-        <v>26.53461300144346</v>
+        <v>26.3494974149929</v>
       </c>
       <c r="L20">
-        <v>5.408261114043028</v>
+        <v>9.814434142067658</v>
       </c>
       <c r="M20">
-        <v>19.50102699894497</v>
+        <v>24.16178808962082</v>
       </c>
       <c r="N20">
-        <v>13.62824283497074</v>
+        <v>22.40163565066345</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.876658197732154</v>
+        <v>5.773536116541711</v>
       </c>
       <c r="D21">
-        <v>2.235037105780531</v>
+        <v>4.063523918129654</v>
       </c>
       <c r="E21">
-        <v>6.192185255923727</v>
+        <v>10.95478175729924</v>
       </c>
       <c r="F21">
-        <v>44.00384991926804</v>
+        <v>56.17304348594467</v>
       </c>
       <c r="G21">
-        <v>2.096555823364462</v>
+        <v>3.786149081829273</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.31031830992634</v>
+        <v>42.86859760931321</v>
       </c>
       <c r="J21">
-        <v>5.77301749524552</v>
+        <v>10.50977124568275</v>
       </c>
       <c r="K21">
-        <v>28.0459520250622</v>
+        <v>26.65479471003722</v>
       </c>
       <c r="L21">
-        <v>5.363265378814912</v>
+        <v>9.795291997452672</v>
       </c>
       <c r="M21">
-        <v>20.38719710532302</v>
+        <v>24.27156228789169</v>
       </c>
       <c r="N21">
-        <v>13.23234342034411</v>
+        <v>22.3097646341441</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.964759801039154</v>
+        <v>5.782820768172332</v>
       </c>
       <c r="D22">
-        <v>2.287496692900153</v>
+        <v>4.070361709135072</v>
       </c>
       <c r="E22">
-        <v>6.205884095926625</v>
+        <v>10.94515309443579</v>
       </c>
       <c r="F22">
-        <v>44.91199545844288</v>
+        <v>56.20832348066303</v>
       </c>
       <c r="G22">
-        <v>2.087482479382078</v>
+        <v>3.783393000601062</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.90669213251901</v>
+        <v>42.87633234952196</v>
       </c>
       <c r="J22">
-        <v>5.736164133545715</v>
+        <v>10.49428814739449</v>
       </c>
       <c r="K22">
-        <v>29.01464342468009</v>
+        <v>26.85749784082401</v>
       </c>
       <c r="L22">
-        <v>5.334661076957826</v>
+        <v>9.783331962099096</v>
       </c>
       <c r="M22">
-        <v>20.96190525231424</v>
+        <v>24.34693609158515</v>
       </c>
       <c r="N22">
-        <v>12.9732579397915</v>
+        <v>22.25147644635762</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.917834834676333</v>
+        <v>5.777823312087179</v>
       </c>
       <c r="D23">
-        <v>2.259447011484233</v>
+        <v>4.066713063710097</v>
       </c>
       <c r="E23">
-        <v>6.198392662485566</v>
+        <v>10.95021850994367</v>
       </c>
       <c r="F23">
-        <v>44.42410243383333</v>
+        <v>56.18847170798574</v>
       </c>
       <c r="G23">
-        <v>2.092323860510843</v>
+        <v>3.78485453077821</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.58582382400088</v>
+        <v>42.87145847407559</v>
       </c>
       <c r="J23">
-        <v>5.755714315488591</v>
+        <v>10.50248545221231</v>
       </c>
       <c r="K23">
-        <v>28.4993522487818</v>
+        <v>26.74903867255186</v>
       </c>
       <c r="L23">
-        <v>5.349855876285841</v>
+        <v>9.789665033862546</v>
       </c>
       <c r="M23">
-        <v>20.6555816268997</v>
+        <v>24.30637999748627</v>
       </c>
       <c r="N23">
-        <v>13.11160270204827</v>
+        <v>22.28242593846169</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.738031353077646</v>
+        <v>5.759828690077788</v>
       </c>
       <c r="D24">
-        <v>2.154161714641093</v>
+        <v>4.052877514441354</v>
       </c>
       <c r="E24">
-        <v>6.173903658169272</v>
+        <v>10.97102206314458</v>
       </c>
       <c r="F24">
-        <v>42.6449557037789</v>
+        <v>56.13573884582004</v>
       </c>
       <c r="G24">
-        <v>2.110713175144682</v>
+        <v>3.790597895912876</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.42571164988625</v>
+        <v>42.86936885710673</v>
       </c>
       <c r="J24">
-        <v>5.832370364683684</v>
+        <v>10.5349909680517</v>
       </c>
       <c r="K24">
-        <v>26.50958519982946</v>
+        <v>26.34456499917346</v>
       </c>
       <c r="L24">
-        <v>5.409010451226592</v>
+        <v>9.814756335535122</v>
       </c>
       <c r="M24">
-        <v>19.4864691853535</v>
+        <v>24.16005614330061</v>
       </c>
       <c r="N24">
-        <v>13.63471525615006</v>
+        <v>22.40316698452354</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.540005385423799</v>
+        <v>5.742462456739129</v>
       </c>
       <c r="D25">
-        <v>2.041673017118166</v>
+        <v>4.037923728090914</v>
       </c>
       <c r="E25">
-        <v>6.15535657811107</v>
+        <v>10.9969373147166</v>
       </c>
       <c r="F25">
-        <v>40.86372060102765</v>
+        <v>56.12676075393527</v>
       </c>
       <c r="G25">
-        <v>2.130815161532239</v>
+        <v>3.797241456707048</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.28412448927966</v>
+        <v>42.90198089688154</v>
       </c>
       <c r="J25">
-        <v>5.920619698873293</v>
+        <v>10.57318845789657</v>
       </c>
       <c r="K25">
-        <v>24.28057407351051</v>
+        <v>25.9236622740337</v>
       </c>
       <c r="L25">
-        <v>5.476417680113354</v>
+        <v>9.844199330495771</v>
       </c>
       <c r="M25">
-        <v>18.20745029927636</v>
+        <v>24.01823341937847</v>
       </c>
       <c r="N25">
-        <v>14.20072524934151</v>
+        <v>22.5409967247262</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.731479089984926</v>
+        <v>3.39124989479627</v>
       </c>
       <c r="D2">
-        <v>4.02689124726781</v>
+        <v>1.959024106458365</v>
       </c>
       <c r="E2">
-        <v>11.01902685770507</v>
+        <v>6.148081305711584</v>
       </c>
       <c r="F2">
-        <v>56.16118677529693</v>
+        <v>39.66316260335915</v>
       </c>
       <c r="G2">
-        <v>3.802523705940218</v>
+        <v>2.14597975673971</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>42.95582160415511</v>
+        <v>29.53070763054782</v>
       </c>
       <c r="J2">
-        <v>10.60403210761356</v>
+        <v>5.990393658724051</v>
       </c>
       <c r="K2">
-        <v>25.62879259690334</v>
+        <v>22.56976069508373</v>
       </c>
       <c r="L2">
-        <v>9.867943274947429</v>
+        <v>5.529305906619697</v>
       </c>
       <c r="M2">
-        <v>23.92797326314158</v>
+        <v>17.25305220478933</v>
       </c>
       <c r="N2">
-        <v>22.64909153021994</v>
+        <v>14.62223247367973</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.725182230911743</v>
+        <v>3.289000958657498</v>
       </c>
       <c r="D3">
-        <v>4.019402723893896</v>
+        <v>1.902848235510187</v>
       </c>
       <c r="E3">
-        <v>11.03588353161569</v>
+        <v>6.146959185814178</v>
       </c>
       <c r="F3">
-        <v>56.20999551745348</v>
+        <v>38.91541514555021</v>
       </c>
       <c r="G3">
-        <v>3.80634970767164</v>
+        <v>2.156541741966501</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>43.01081578281017</v>
+        <v>29.07106175851303</v>
       </c>
       <c r="J3">
-        <v>10.62664280277311</v>
+        <v>6.040685241768051</v>
       </c>
       <c r="K3">
-        <v>25.43920873063569</v>
+        <v>21.36962137461878</v>
       </c>
       <c r="L3">
-        <v>9.885333192104879</v>
+        <v>5.567253190221024</v>
       </c>
       <c r="M3">
-        <v>23.87581170368316</v>
+        <v>16.6007514051684</v>
       </c>
       <c r="N3">
-        <v>22.72651391446256</v>
+        <v>14.91229428993876</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.721888546999986</v>
+        <v>3.225680486338561</v>
       </c>
       <c r="D4">
-        <v>4.014799772495461</v>
+        <v>1.868209538632026</v>
       </c>
       <c r="E4">
-        <v>11.04716737126437</v>
+        <v>6.148096564475396</v>
       </c>
       <c r="F4">
-        <v>56.25248126831443</v>
+        <v>38.48771236582034</v>
       </c>
       <c r="G4">
-        <v>3.808821134555174</v>
+        <v>2.163184319845525</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>43.05367142107981</v>
+        <v>28.81284676245593</v>
       </c>
       <c r="J4">
-        <v>10.64137200155491</v>
+        <v>6.073052596559687</v>
       </c>
       <c r="K4">
-        <v>25.32813615207136</v>
+        <v>20.61419579343146</v>
       </c>
       <c r="L4">
-        <v>9.896654487478134</v>
+        <v>5.591613311429928</v>
       </c>
       <c r="M4">
-        <v>23.84827883766341</v>
+        <v>16.1986102653764</v>
       </c>
       <c r="N4">
-        <v>22.77611961278301</v>
+        <v>15.09299218570523</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.720691404535427</v>
+        <v>3.19977029877374</v>
       </c>
       <c r="D5">
-        <v>4.012922941342502</v>
+        <v>1.854049883843016</v>
       </c>
       <c r="E5">
-        <v>11.05200092519305</v>
+        <v>6.149012058578171</v>
       </c>
       <c r="F5">
-        <v>56.27293405300129</v>
+        <v>38.32115722757916</v>
       </c>
       <c r="G5">
-        <v>3.809859116249618</v>
+        <v>2.165933130215607</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>43.07341485935435</v>
+        <v>28.71349032033417</v>
       </c>
       <c r="J5">
-        <v>10.64758757930673</v>
+        <v>6.086617661719262</v>
       </c>
       <c r="K5">
-        <v>25.28425428505371</v>
+        <v>20.30200222039318</v>
       </c>
       <c r="L5">
-        <v>9.901430377712888</v>
+        <v>5.601809973509423</v>
       </c>
       <c r="M5">
-        <v>23.83819642386317</v>
+        <v>16.03451855710848</v>
       </c>
       <c r="N5">
-        <v>22.79685617482015</v>
+        <v>15.16733984176802</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.720501411572102</v>
+        <v>3.19546239675361</v>
       </c>
       <c r="D6">
-        <v>4.012611233715199</v>
+        <v>1.851695844425842</v>
       </c>
       <c r="E6">
-        <v>11.05281775897998</v>
+        <v>6.14919116942155</v>
       </c>
       <c r="F6">
-        <v>56.27651958286047</v>
+        <v>38.29396319060104</v>
       </c>
       <c r="G6">
-        <v>3.810033339283026</v>
+        <v>2.166392163452846</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>43.07683072272353</v>
+        <v>28.69734159886517</v>
       </c>
       <c r="J6">
-        <v>10.64863257057145</v>
+        <v>6.088892814762016</v>
       </c>
       <c r="K6">
-        <v>25.27705227492341</v>
+        <v>20.24991035611684</v>
       </c>
       <c r="L6">
-        <v>9.90223323148385</v>
+        <v>5.603519499325277</v>
       </c>
       <c r="M6">
-        <v>23.83659113996031</v>
+        <v>16.00726430900016</v>
       </c>
       <c r="N6">
-        <v>22.80033103598908</v>
+        <v>15.17972983826422</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.721871813177932</v>
+        <v>3.225331443638359</v>
       </c>
       <c r="D7">
-        <v>4.014774465080883</v>
+        <v>1.868018763358147</v>
       </c>
       <c r="E7">
-        <v>11.04723160489356</v>
+        <v>6.148107090349732</v>
       </c>
       <c r="F7">
-        <v>56.25274440170626</v>
+        <v>38.48543504078437</v>
       </c>
       <c r="G7">
-        <v>3.80883500805607</v>
+        <v>2.16322121865525</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>43.05392846740958</v>
+        <v>28.81148327502961</v>
       </c>
       <c r="J7">
-        <v>10.64145496261515</v>
+        <v>6.073234019682063</v>
       </c>
       <c r="K7">
-        <v>25.32753870267128</v>
+        <v>20.61000259888383</v>
       </c>
       <c r="L7">
-        <v>9.896718238739913</v>
+        <v>5.591749731121924</v>
       </c>
       <c r="M7">
-        <v>23.84813824836223</v>
+        <v>16.19639786915246</v>
       </c>
       <c r="N7">
-        <v>22.77639715807236</v>
+        <v>15.09399190775667</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.729189743963353</v>
+        <v>3.356122868224341</v>
       </c>
       <c r="D8">
-        <v>4.024310328162263</v>
+        <v>1.939680050795683</v>
       </c>
       <c r="E8">
-        <v>11.02464553015196</v>
+        <v>6.147310864550127</v>
       </c>
       <c r="F8">
-        <v>56.17541365771034</v>
+        <v>39.39872343386524</v>
       </c>
       <c r="G8">
-        <v>3.803817608667375</v>
+        <v>2.149590288294018</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>42.97289370500125</v>
+        <v>29.36713869675924</v>
       </c>
       <c r="J8">
-        <v>10.6116529841028</v>
+        <v>6.007425847087775</v>
       </c>
       <c r="K8">
-        <v>25.56234211739426</v>
+        <v>22.15996290311848</v>
       </c>
       <c r="L8">
-        <v>9.873805981831973</v>
+        <v>5.542171960426345</v>
       </c>
       <c r="M8">
-        <v>23.90905974411119</v>
+        <v>17.02858433809094</v>
       </c>
       <c r="N8">
-        <v>22.67535864307632</v>
+        <v>14.72174275835989</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.748035164050976</v>
+        <v>3.607214167329055</v>
       </c>
       <c r="D9">
-        <v>4.042964627409118</v>
+        <v>2.079494427825626</v>
       </c>
       <c r="E9">
-        <v>10.98774171865541</v>
+        <v>6.160588725201064</v>
       </c>
       <c r="F9">
-        <v>56.12339727895037</v>
+        <v>41.4460319289812</v>
       </c>
       <c r="G9">
-        <v>3.794943214276279</v>
+        <v>2.123995635176585</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>42.88635005785621</v>
+        <v>30.65467324347726</v>
       </c>
       <c r="J9">
-        <v>10.55990072391069</v>
+        <v>5.890148966833054</v>
       </c>
       <c r="K9">
-        <v>26.06322709695331</v>
+        <v>25.04244917266862</v>
       </c>
       <c r="L9">
-        <v>9.833961943326148</v>
+        <v>5.453215780412795</v>
       </c>
       <c r="M9">
-        <v>24.06383149247712</v>
+        <v>18.640505649499</v>
       </c>
       <c r="N9">
-        <v>22.49354703651725</v>
+        <v>14.00952907479153</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.76455423165743</v>
+        <v>3.78717423748286</v>
       </c>
       <c r="D10">
-        <v>4.056635335391732</v>
+        <v>2.182611639713107</v>
       </c>
       <c r="E10">
-        <v>10.96510289592221</v>
+        <v>6.179911694504316</v>
       </c>
       <c r="F10">
-        <v>56.14627691363739</v>
+        <v>43.11660546119761</v>
       </c>
       <c r="G10">
-        <v>3.789003951717646</v>
+        <v>2.10570791153563</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.86718621184222</v>
+        <v>31.73158531148144</v>
       </c>
       <c r="J10">
-        <v>10.52592252781314</v>
+        <v>5.811126262725875</v>
       </c>
       <c r="K10">
-        <v>26.45322441267437</v>
+        <v>27.05613515595143</v>
       </c>
       <c r="L10">
-        <v>9.807759746529724</v>
+        <v>5.392679286331077</v>
       </c>
       <c r="M10">
-        <v>24.198531808223</v>
+        <v>19.80527719512749</v>
       </c>
       <c r="N10">
-        <v>22.36980143732798</v>
+        <v>13.49275796099696</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.772634411997551</v>
+        <v>3.867880253810937</v>
       </c>
       <c r="D11">
-        <v>4.06284561247729</v>
+        <v>2.229857363642213</v>
       </c>
       <c r="E11">
-        <v>10.95576929512785</v>
+        <v>6.190906950122652</v>
       </c>
       <c r="F11">
-        <v>56.17000205938</v>
+        <v>43.91522609718616</v>
       </c>
       <c r="G11">
-        <v>3.786426561563768</v>
+        <v>2.09745616624161</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.86816367756005</v>
+        <v>32.25232792496464</v>
       </c>
       <c r="J11">
-        <v>10.51133599100286</v>
+        <v>5.77672458612534</v>
       </c>
       <c r="K11">
-        <v>26.63482117785957</v>
+        <v>27.94913773693921</v>
       </c>
       <c r="L11">
-        <v>9.796500251924906</v>
+        <v>5.366133717999283</v>
       </c>
       <c r="M11">
-        <v>24.26423606293308</v>
+        <v>20.33003333594522</v>
       </c>
       <c r="N11">
-        <v>22.31561528824556</v>
+        <v>13.25800602837984</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.77577409891301</v>
+        <v>3.89826519703023</v>
       </c>
       <c r="D12">
-        <v>4.065195903929065</v>
+        <v>2.247822672834471</v>
       </c>
       <c r="E12">
-        <v>10.95237315485053</v>
+        <v>6.195399374516382</v>
       </c>
       <c r="F12">
-        <v>56.18090269434279</v>
+        <v>44.22344675350358</v>
       </c>
       <c r="G12">
-        <v>3.785468340360176</v>
+        <v>2.094336947887715</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>42.86993064549772</v>
+        <v>32.45417495597358</v>
       </c>
       <c r="J12">
-        <v>10.50593705917439</v>
+        <v>5.763920236298089</v>
       </c>
       <c r="K12">
-        <v>26.70413672339683</v>
+        <v>28.28401943798663</v>
       </c>
       <c r="L12">
-        <v>9.792330998962653</v>
+        <v>5.356219670785544</v>
       </c>
       <c r="M12">
-        <v>24.28974073889231</v>
+        <v>20.52798088220281</v>
       </c>
       <c r="N12">
-        <v>22.29539736732192</v>
+        <v>13.16906077748357</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.775094380993319</v>
+        <v>3.891729226139679</v>
       </c>
       <c r="D13">
-        <v>4.064689791818415</v>
+        <v>2.243949747780757</v>
       </c>
       <c r="E13">
-        <v>10.95309843122288</v>
+        <v>6.194417029904666</v>
       </c>
       <c r="F13">
-        <v>56.17846980558304</v>
+        <v>44.15680363837367</v>
       </c>
       <c r="G13">
-        <v>3.785673921386727</v>
+        <v>2.095008552676117</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>42.86948793951495</v>
+        <v>32.41049287869689</v>
       </c>
       <c r="J13">
-        <v>10.50709427841</v>
+        <v>5.7666679602582</v>
       </c>
       <c r="K13">
-        <v>26.6891848250873</v>
+        <v>28.21204136210168</v>
       </c>
       <c r="L13">
-        <v>9.793224727368424</v>
+        <v>5.358348769727595</v>
       </c>
       <c r="M13">
-        <v>24.28422031649482</v>
+        <v>20.48538354500711</v>
       </c>
       <c r="N13">
-        <v>22.29973828931443</v>
+        <v>13.18822059272484</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.772891123026684</v>
+        <v>3.870383623976593</v>
       </c>
       <c r="D14">
-        <v>4.063039001505179</v>
+        <v>2.231333723577044</v>
       </c>
       <c r="E14">
-        <v>10.95548712369698</v>
+        <v>6.191269884555279</v>
       </c>
       <c r="F14">
-        <v>56.17086044970853</v>
+        <v>43.94046581275767</v>
       </c>
       <c r="G14">
-        <v>3.786347372406393</v>
+        <v>2.097199460883973</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.86828104032099</v>
+        <v>32.26883940344872</v>
       </c>
       <c r="J14">
-        <v>10.51088932171094</v>
+        <v>5.775666694758424</v>
       </c>
       <c r="K14">
-        <v>26.64051311734076</v>
+        <v>27.97675397645977</v>
       </c>
       <c r="L14">
-        <v>9.796155354075058</v>
+        <v>5.365315341624466</v>
       </c>
       <c r="M14">
-        <v>24.26632192086828</v>
+        <v>20.34633401306686</v>
       </c>
       <c r="N14">
-        <v>22.31394592093425</v>
+        <v>13.25069003748188</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.771551925665777</v>
+        <v>3.857285595395803</v>
       </c>
       <c r="D15">
-        <v>4.062027656711187</v>
+        <v>2.223616584492864</v>
       </c>
       <c r="E15">
-        <v>10.95696826276616</v>
+        <v>6.189385348379479</v>
       </c>
       <c r="F15">
-        <v>56.16644909484955</v>
+        <v>43.80871590968385</v>
       </c>
       <c r="G15">
-        <v>3.786762192905863</v>
+        <v>2.098542044740542</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.86772375238404</v>
+        <v>32.18268544479319</v>
       </c>
       <c r="J15">
-        <v>10.513230117363</v>
+        <v>5.781207718113252</v>
       </c>
       <c r="K15">
-        <v>26.61077017291432</v>
+        <v>27.83220860750313</v>
       </c>
       <c r="L15">
-        <v>9.797962737877668</v>
+        <v>5.369600420922203</v>
       </c>
       <c r="M15">
-        <v>24.25543949020305</v>
+        <v>20.26106202920391</v>
       </c>
       <c r="N15">
-        <v>22.32268768030704</v>
+        <v>13.28894484600128</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.76403743249582</v>
+        <v>3.781875633805989</v>
       </c>
       <c r="D16">
-        <v>4.056229291665659</v>
+        <v>2.179532907478182</v>
       </c>
       <c r="E16">
-        <v>10.96573224577273</v>
+        <v>6.179238471661119</v>
       </c>
       <c r="F16">
-        <v>56.14499455067242</v>
+        <v>43.06521135741804</v>
       </c>
       <c r="G16">
-        <v>3.789174884302995</v>
+        <v>2.106248195102533</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.86731767080395</v>
+        <v>31.69819227314122</v>
       </c>
       <c r="J16">
-        <v>10.52689326434428</v>
+        <v>5.813405638289349</v>
       </c>
       <c r="K16">
-        <v>26.44143633831197</v>
+        <v>26.99731336600165</v>
       </c>
       <c r="L16">
-        <v>9.80850882482032</v>
+        <v>5.394433696621656</v>
       </c>
       <c r="M16">
-        <v>24.19432590776477</v>
+        <v>19.77087687211123</v>
       </c>
       <c r="N16">
-        <v>22.37338486978287</v>
+        <v>13.50809808953225</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.759571389314468</v>
+        <v>3.735308756272729</v>
       </c>
       <c r="D17">
-        <v>4.052669859605832</v>
+        <v>2.152592264383419</v>
       </c>
       <c r="E17">
-        <v>10.971355474793</v>
+        <v>6.173586411716003</v>
       </c>
       <c r="F17">
-        <v>56.1352451992762</v>
+        <v>42.61915685758314</v>
       </c>
       <c r="G17">
-        <v>3.790686778675214</v>
+        <v>2.110990132846527</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>42.86955388045233</v>
+        <v>31.40901906582372</v>
       </c>
       <c r="J17">
-        <v>10.53549772971628</v>
+        <v>5.833554250511146</v>
       </c>
       <c r="K17">
-        <v>26.33858996518796</v>
+        <v>26.47923809821036</v>
       </c>
       <c r="L17">
-        <v>9.815147241980029</v>
+        <v>5.409919247332569</v>
       </c>
       <c r="M17">
-        <v>24.15796001201663</v>
+        <v>19.46882272389275</v>
       </c>
       <c r="N17">
-        <v>22.40502423183212</v>
+        <v>13.64255969819958</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.757055962712332</v>
+        <v>3.708415989004447</v>
       </c>
       <c r="D18">
-        <v>4.050621769317337</v>
+        <v>2.137126630230914</v>
       </c>
       <c r="E18">
-        <v>10.97468065727624</v>
+        <v>6.170542291532639</v>
       </c>
       <c r="F18">
-        <v>56.13089110132214</v>
+        <v>42.36622122434611</v>
       </c>
       <c r="G18">
-        <v>3.791568096923874</v>
+        <v>2.113724193182225</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>42.87175253908347</v>
+        <v>31.24558373377877</v>
       </c>
       <c r="J18">
-        <v>10.54052873698246</v>
+        <v>5.845288679648329</v>
       </c>
       <c r="K18">
-        <v>26.27983260324737</v>
+        <v>26.17908126337815</v>
       </c>
       <c r="L18">
-        <v>9.819027633661348</v>
+        <v>5.418919868107137</v>
       </c>
       <c r="M18">
-        <v>24.13746095897609</v>
+        <v>19.29460848116453</v>
       </c>
       <c r="N18">
-        <v>22.42342071581415</v>
+        <v>13.71993585338287</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.756213483590076</v>
+        <v>3.699292263098789</v>
       </c>
       <c r="D19">
-        <v>4.049928189089537</v>
+        <v>2.131894659475072</v>
       </c>
       <c r="E19">
-        <v>10.97582212452632</v>
+        <v>6.169546785745991</v>
       </c>
       <c r="F19">
-        <v>56.12963209536112</v>
+        <v>42.28119721592299</v>
       </c>
       <c r="G19">
-        <v>3.79186851181958</v>
+        <v>2.114651155382044</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>42.87265358655048</v>
+        <v>31.19073741803089</v>
       </c>
       <c r="J19">
-        <v>10.54224623858526</v>
+        <v>5.849286733547665</v>
       </c>
       <c r="K19">
-        <v>26.26000818224785</v>
+        <v>26.07707992383786</v>
       </c>
       <c r="L19">
-        <v>9.820352155227356</v>
+        <v>5.421983557043519</v>
       </c>
       <c r="M19">
-        <v>24.13059244271511</v>
+        <v>19.23554153345973</v>
       </c>
       <c r="N19">
-        <v>22.42968356934252</v>
+        <v>13.74614332508634</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.760041298659803</v>
+        <v>3.740277219877695</v>
       </c>
       <c r="D20">
-        <v>4.053048851131634</v>
+        <v>2.155456874166512</v>
       </c>
       <c r="E20">
-        <v>10.97074747319205</v>
+        <v>6.174166599941218</v>
       </c>
       <c r="F20">
-        <v>56.13615329022647</v>
+        <v>42.66626354192004</v>
       </c>
       <c r="G20">
-        <v>3.790524623114154</v>
+        <v>2.11048468856616</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>42.86922137544589</v>
+        <v>31.43950151453904</v>
       </c>
       <c r="J20">
-        <v>10.53457329204944</v>
+        <v>5.831394337406577</v>
       </c>
       <c r="K20">
-        <v>26.3494974149929</v>
+        <v>26.53461300144345</v>
       </c>
       <c r="L20">
-        <v>9.814434142067658</v>
+        <v>5.408261114043022</v>
       </c>
       <c r="M20">
-        <v>24.16178808962082</v>
+        <v>19.50102699894493</v>
       </c>
       <c r="N20">
-        <v>22.40163565066345</v>
+        <v>13.62824283497071</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.773536116541711</v>
+        <v>3.876658197732254</v>
       </c>
       <c r="D21">
-        <v>4.063523918129654</v>
+        <v>2.235037105780825</v>
       </c>
       <c r="E21">
-        <v>10.95478175729924</v>
+        <v>6.192185255923817</v>
       </c>
       <c r="F21">
-        <v>56.17304348594467</v>
+        <v>44.00384991926799</v>
       </c>
       <c r="G21">
-        <v>3.786149081829273</v>
+        <v>2.096555823364857</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>42.86859760931321</v>
+        <v>32.31031830992626</v>
       </c>
       <c r="J21">
-        <v>10.50977124568275</v>
+        <v>5.773017495245446</v>
       </c>
       <c r="K21">
-        <v>26.65479471003722</v>
+        <v>28.04595202506221</v>
       </c>
       <c r="L21">
-        <v>9.795291997452672</v>
+        <v>5.363265378814972</v>
       </c>
       <c r="M21">
-        <v>24.27156228789169</v>
+        <v>20.38719710532299</v>
       </c>
       <c r="N21">
-        <v>22.3097646341441</v>
+        <v>13.23234342034411</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.782820768172332</v>
+        <v>3.964759801039319</v>
       </c>
       <c r="D22">
-        <v>4.070361709135072</v>
+        <v>2.287496692900168</v>
       </c>
       <c r="E22">
-        <v>10.94515309443579</v>
+        <v>6.205884095926688</v>
       </c>
       <c r="F22">
-        <v>56.20832348066303</v>
+        <v>44.91199545844277</v>
       </c>
       <c r="G22">
-        <v>3.783393000601062</v>
+        <v>2.087482479382213</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>42.87633234952196</v>
+        <v>32.90669213251892</v>
       </c>
       <c r="J22">
-        <v>10.49428814739449</v>
+        <v>5.736164133545711</v>
       </c>
       <c r="K22">
-        <v>26.85749784082401</v>
+        <v>29.01464342468011</v>
       </c>
       <c r="L22">
-        <v>9.783331962099096</v>
+        <v>5.334661076957765</v>
       </c>
       <c r="M22">
-        <v>24.34693609158515</v>
+        <v>20.96190525231421</v>
       </c>
       <c r="N22">
-        <v>22.25147644635762</v>
+        <v>12.97325793979134</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.777823312087179</v>
+        <v>3.917834834676348</v>
       </c>
       <c r="D23">
-        <v>4.066713063710097</v>
+        <v>2.259447011484175</v>
       </c>
       <c r="E23">
-        <v>10.95021850994367</v>
+        <v>6.198392662485572</v>
       </c>
       <c r="F23">
-        <v>56.18847170798574</v>
+        <v>44.42410243383337</v>
       </c>
       <c r="G23">
-        <v>3.78485453077821</v>
+        <v>2.092323860510707</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>42.87145847407559</v>
+        <v>32.58582382400093</v>
       </c>
       <c r="J23">
-        <v>10.50248545221231</v>
+        <v>5.755714315488655</v>
       </c>
       <c r="K23">
-        <v>26.74903867255186</v>
+        <v>28.4993522487818</v>
       </c>
       <c r="L23">
-        <v>9.789665033862546</v>
+        <v>5.349855876285902</v>
       </c>
       <c r="M23">
-        <v>24.30637999748627</v>
+        <v>20.65558162689974</v>
       </c>
       <c r="N23">
-        <v>22.28242593846169</v>
+        <v>13.11160270204833</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.759828690077788</v>
+        <v>3.738031353077659</v>
       </c>
       <c r="D24">
-        <v>4.052877514441354</v>
+        <v>2.154161714641141</v>
       </c>
       <c r="E24">
-        <v>10.97102206314458</v>
+        <v>6.17390365816935</v>
       </c>
       <c r="F24">
-        <v>56.13573884582004</v>
+        <v>42.64495570377881</v>
       </c>
       <c r="G24">
-        <v>3.790597895912876</v>
+        <v>2.110713175144684</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>42.86936885710673</v>
+        <v>31.4257116498862</v>
       </c>
       <c r="J24">
-        <v>10.5349909680517</v>
+        <v>5.832370364683721</v>
       </c>
       <c r="K24">
-        <v>26.34456499917346</v>
+        <v>26.50958519982944</v>
       </c>
       <c r="L24">
-        <v>9.814756335535122</v>
+        <v>5.409010451226668</v>
       </c>
       <c r="M24">
-        <v>24.16005614330061</v>
+        <v>19.4864691853535</v>
       </c>
       <c r="N24">
-        <v>22.40316698452354</v>
+        <v>13.63471525615006</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.742462456739129</v>
+        <v>3.540005385423868</v>
       </c>
       <c r="D25">
-        <v>4.037923728090914</v>
+        <v>2.041673017118285</v>
       </c>
       <c r="E25">
-        <v>10.9969373147166</v>
+        <v>6.15535657811107</v>
       </c>
       <c r="F25">
-        <v>56.12676075393527</v>
+        <v>40.86372060102775</v>
       </c>
       <c r="G25">
-        <v>3.797241456707048</v>
+        <v>2.130815161532374</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>42.90198089688154</v>
+        <v>30.28412448927972</v>
       </c>
       <c r="J25">
-        <v>10.57318845789657</v>
+        <v>5.920619698873225</v>
       </c>
       <c r="K25">
-        <v>25.9236622740337</v>
+        <v>24.28057407351051</v>
       </c>
       <c r="L25">
-        <v>9.844199330495771</v>
+        <v>5.476417680113291</v>
       </c>
       <c r="M25">
-        <v>24.01823341937847</v>
+        <v>18.20745029927636</v>
       </c>
       <c r="N25">
-        <v>22.5409967247262</v>
+        <v>14.20072524934155</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.39124989479627</v>
+        <v>5.733244597326562</v>
       </c>
       <c r="D2">
-        <v>1.959024106458365</v>
+        <v>3.007471335639433</v>
       </c>
       <c r="E2">
-        <v>6.148081305711584</v>
+        <v>10.06806837432763</v>
       </c>
       <c r="F2">
-        <v>39.66316260335915</v>
+        <v>22.51963629011568</v>
       </c>
       <c r="G2">
-        <v>2.14597975673971</v>
+        <v>31.58230617519286</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.851482801760775</v>
       </c>
       <c r="I2">
-        <v>29.53070763054782</v>
+        <v>5.092730622119276</v>
       </c>
       <c r="J2">
-        <v>5.990393658724051</v>
+        <v>9.505450306881452</v>
       </c>
       <c r="K2">
-        <v>22.56976069508373</v>
+        <v>17.28512662471723</v>
       </c>
       <c r="L2">
-        <v>5.529305906619697</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>17.25305220478933</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.62223247367973</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>27.49151192611247</v>
+      </c>
+      <c r="P2">
+        <v>19.95826319267839</v>
+      </c>
+      <c r="Q2">
+        <v>17.36129056562154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.289000958657498</v>
+        <v>5.540576570092743</v>
       </c>
       <c r="D3">
-        <v>1.902848235510187</v>
+        <v>2.909116975486504</v>
       </c>
       <c r="E3">
-        <v>6.146959185814178</v>
+        <v>10.01931745217107</v>
       </c>
       <c r="F3">
-        <v>38.91541514555021</v>
+        <v>21.30216717033075</v>
       </c>
       <c r="G3">
-        <v>2.156541741966501</v>
+        <v>29.65779485869125</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.627937969548771</v>
       </c>
       <c r="I3">
-        <v>29.07106175851303</v>
+        <v>4.894739710751337</v>
       </c>
       <c r="J3">
-        <v>6.040685241768051</v>
+        <v>9.204795662368369</v>
       </c>
       <c r="K3">
-        <v>21.36962137461878</v>
+        <v>16.51583407746141</v>
       </c>
       <c r="L3">
-        <v>5.567253190221024</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>16.6007514051684</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.91229428993876</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>25.77013878461165</v>
+      </c>
+      <c r="P3">
+        <v>19.09469813760655</v>
+      </c>
+      <c r="Q3">
+        <v>16.55059513362028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.225680486338561</v>
+        <v>5.41479785803663</v>
       </c>
       <c r="D4">
-        <v>1.868209538632026</v>
+        <v>2.846610113991457</v>
       </c>
       <c r="E4">
-        <v>6.148096564475396</v>
+        <v>9.987949617847939</v>
       </c>
       <c r="F4">
-        <v>38.48771236582034</v>
+        <v>20.52447988415476</v>
       </c>
       <c r="G4">
-        <v>2.163184319845525</v>
+        <v>28.41679847778833</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.486230926241451</v>
       </c>
       <c r="I4">
-        <v>28.81284676245593</v>
+        <v>4.768633666194058</v>
       </c>
       <c r="J4">
-        <v>6.073052596559687</v>
+        <v>9.017514017335152</v>
       </c>
       <c r="K4">
-        <v>20.61419579343146</v>
+        <v>16.02620767875661</v>
       </c>
       <c r="L4">
-        <v>5.591613311429928</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>16.1986102653764</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.09299218570523</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>24.64907742054097</v>
+      </c>
+      <c r="P4">
+        <v>18.54555275262354</v>
+      </c>
+      <c r="Q4">
+        <v>16.03633485588279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.19977029877374</v>
+        <v>5.35338227477799</v>
       </c>
       <c r="D5">
-        <v>1.854049883843016</v>
+        <v>2.821693071344525</v>
       </c>
       <c r="E5">
-        <v>6.149012058578171</v>
+        <v>9.974589261036172</v>
       </c>
       <c r="F5">
-        <v>38.32115722757916</v>
+        <v>20.19138436330298</v>
       </c>
       <c r="G5">
-        <v>2.165933130215607</v>
+        <v>27.88017193179716</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.42709734941287</v>
       </c>
       <c r="I5">
-        <v>28.71349032033417</v>
+        <v>4.715611415404823</v>
       </c>
       <c r="J5">
-        <v>6.086617661719262</v>
+        <v>8.937505854166879</v>
       </c>
       <c r="K5">
-        <v>20.30200222039318</v>
+        <v>15.81180905788042</v>
       </c>
       <c r="L5">
-        <v>5.601809973509423</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>16.03451855710848</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.16733984176802</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.17295855155547</v>
+      </c>
+      <c r="P5">
+        <v>18.31793269346878</v>
+      </c>
+      <c r="Q5">
+        <v>15.81538944890168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.19546239675361</v>
+        <v>5.332961929429476</v>
       </c>
       <c r="D6">
-        <v>1.851695844425842</v>
+        <v>2.818845216618279</v>
       </c>
       <c r="E6">
-        <v>6.14919116942155</v>
+        <v>9.972123772276712</v>
       </c>
       <c r="F6">
-        <v>38.29396319060104</v>
+        <v>20.12472976017332</v>
       </c>
       <c r="G6">
-        <v>2.166392163452846</v>
+        <v>27.77027504842779</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.416902728548953</v>
       </c>
       <c r="I6">
-        <v>28.69734159886517</v>
+        <v>4.706278332292142</v>
       </c>
       <c r="J6">
-        <v>6.088892814762016</v>
+        <v>8.920376440612728</v>
       </c>
       <c r="K6">
-        <v>20.24991035611684</v>
+        <v>15.76278991315282</v>
       </c>
       <c r="L6">
-        <v>5.603519499325277</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>16.00726430900016</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.17972983826422</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.08902582690094</v>
+      </c>
+      <c r="P6">
+        <v>18.28064656761844</v>
+      </c>
+      <c r="Q6">
+        <v>15.76930746910928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.225331443638359</v>
+        <v>5.3865808702</v>
       </c>
       <c r="D7">
-        <v>1.868018763358147</v>
+        <v>2.849857266668728</v>
       </c>
       <c r="E7">
-        <v>6.148107090349732</v>
+        <v>9.987175613461009</v>
       </c>
       <c r="F7">
-        <v>38.48543504078437</v>
+        <v>20.49075215932744</v>
       </c>
       <c r="G7">
-        <v>2.16322121865525</v>
+        <v>28.35639542828343</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.484607452042132</v>
       </c>
       <c r="I7">
-        <v>28.81148327502961</v>
+        <v>4.766524400337089</v>
       </c>
       <c r="J7">
-        <v>6.073234019682063</v>
+        <v>9.006124500395293</v>
       </c>
       <c r="K7">
-        <v>20.61000259888383</v>
+        <v>15.98786060881739</v>
       </c>
       <c r="L7">
-        <v>5.591749731121924</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>16.19639786915246</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.09399190775667</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>24.63230758050616</v>
+      </c>
+      <c r="P7">
+        <v>18.54458252747086</v>
+      </c>
+      <c r="Q7">
+        <v>16.00871820184507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.356122868224341</v>
+        <v>5.633405596333866</v>
       </c>
       <c r="D8">
-        <v>1.939680050795683</v>
+        <v>2.97862474224533</v>
       </c>
       <c r="E8">
-        <v>6.147310864550127</v>
+        <v>10.05082510522062</v>
       </c>
       <c r="F8">
-        <v>39.39872343386524</v>
+        <v>22.06996880047223</v>
       </c>
       <c r="G8">
-        <v>2.149590288294018</v>
+        <v>30.86576793676806</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.774245849858735</v>
       </c>
       <c r="I8">
-        <v>29.36713869675924</v>
+        <v>5.023497169527223</v>
       </c>
       <c r="J8">
-        <v>6.007425847087775</v>
+        <v>9.389223943878241</v>
       </c>
       <c r="K8">
-        <v>22.15996290311848</v>
+        <v>16.97901554099242</v>
       </c>
       <c r="L8">
-        <v>5.542171960426345</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>17.02858433809094</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.72174275835989</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>26.89856385795809</v>
+      </c>
+      <c r="P8">
+        <v>19.66723646835962</v>
+      </c>
+      <c r="Q8">
+        <v>17.05443850119111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.607214167329055</v>
+        <v>6.10386726004709</v>
       </c>
       <c r="D9">
-        <v>2.079494427825626</v>
+        <v>3.207784646126664</v>
       </c>
       <c r="E9">
-        <v>6.160588725201064</v>
+        <v>10.16671827855587</v>
       </c>
       <c r="F9">
-        <v>41.4460319289812</v>
+        <v>24.96410156093414</v>
       </c>
       <c r="G9">
-        <v>2.123995635176585</v>
+        <v>35.39229578745467</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.309162067758111</v>
       </c>
       <c r="I9">
-        <v>30.65467324347726</v>
+        <v>5.49501634941304</v>
       </c>
       <c r="J9">
-        <v>5.890148966833054</v>
+        <v>10.1328240942358</v>
       </c>
       <c r="K9">
-        <v>25.04244917266862</v>
+        <v>18.83559868867832</v>
       </c>
       <c r="L9">
-        <v>5.453215780412795</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>18.640505649499</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.00952907479153</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>30.8497738408395</v>
+      </c>
+      <c r="P9">
+        <v>21.70453140725386</v>
+      </c>
+      <c r="Q9">
+        <v>19.00565175231659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.78717423748286</v>
+        <v>6.406862785701247</v>
       </c>
       <c r="D10">
-        <v>2.182611639713107</v>
+        <v>3.378833833641056</v>
       </c>
       <c r="E10">
-        <v>6.179911694504316</v>
+        <v>10.17436969221928</v>
       </c>
       <c r="F10">
-        <v>43.11660546119761</v>
+        <v>26.82858591717738</v>
       </c>
       <c r="G10">
-        <v>2.10570791153563</v>
+        <v>38.24440653304119</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.657866769087298</v>
       </c>
       <c r="I10">
-        <v>31.73158531148144</v>
+        <v>5.816870698813285</v>
       </c>
       <c r="J10">
-        <v>5.811126262725875</v>
+        <v>10.62112543080121</v>
       </c>
       <c r="K10">
-        <v>27.05613515595143</v>
+        <v>20.02316830637684</v>
       </c>
       <c r="L10">
-        <v>5.392679286331077</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>19.80527719512749</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.49275796099696</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.15650754042603</v>
+      </c>
+      <c r="P10">
+        <v>23.15497279127811</v>
+      </c>
+      <c r="Q10">
+        <v>20.25863104279573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.867880253810937</v>
+        <v>6.564316741842396</v>
       </c>
       <c r="D11">
-        <v>2.229857363642213</v>
+        <v>3.565166232991035</v>
       </c>
       <c r="E11">
-        <v>6.190906950122652</v>
+        <v>11.00500954261627</v>
       </c>
       <c r="F11">
-        <v>43.91522609718616</v>
+        <v>26.86838680772078</v>
       </c>
       <c r="G11">
-        <v>2.09745616624161</v>
+        <v>38.11731557418432</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.148207936375556</v>
       </c>
       <c r="I11">
-        <v>32.25232792496464</v>
+        <v>5.926304346082644</v>
       </c>
       <c r="J11">
-        <v>5.77672458612534</v>
+        <v>10.53499179584499</v>
       </c>
       <c r="K11">
-        <v>27.94913773693921</v>
+        <v>19.95642908868986</v>
       </c>
       <c r="L11">
-        <v>5.366133717999283</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.33003333594522</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.25800602837984</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>31.71642445580091</v>
+      </c>
+      <c r="P11">
+        <v>24.33220029163769</v>
+      </c>
+      <c r="Q11">
+        <v>20.13387965268761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.89826519703023</v>
+        <v>6.682425270809126</v>
       </c>
       <c r="D12">
-        <v>2.247822672834471</v>
+        <v>3.685696275363179</v>
       </c>
       <c r="E12">
-        <v>6.195399374516382</v>
+        <v>13.33077831779767</v>
       </c>
       <c r="F12">
-        <v>44.22344675350358</v>
+        <v>26.54754410132437</v>
       </c>
       <c r="G12">
-        <v>2.094336947887715</v>
+        <v>37.48152450900283</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.066450550155148</v>
       </c>
       <c r="I12">
-        <v>32.45417495597358</v>
+        <v>5.95737161363427</v>
       </c>
       <c r="J12">
-        <v>5.763920236298089</v>
+        <v>10.36887559991465</v>
       </c>
       <c r="K12">
-        <v>28.28401943798663</v>
+        <v>19.69415950414896</v>
       </c>
       <c r="L12">
-        <v>5.356219670785544</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>20.52798088220281</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.16906077748357</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>30.01751052183215</v>
+      </c>
+      <c r="P12">
+        <v>25.03419931639766</v>
+      </c>
+      <c r="Q12">
+        <v>19.79289733286205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.891729226139679</v>
+        <v>6.742621653013645</v>
       </c>
       <c r="D13">
-        <v>2.243949747780757</v>
+        <v>3.769293736141098</v>
       </c>
       <c r="E13">
-        <v>6.194417029904666</v>
+        <v>16.30944538856745</v>
       </c>
       <c r="F13">
-        <v>44.15680363837367</v>
+        <v>25.88083316406028</v>
       </c>
       <c r="G13">
-        <v>2.095008552676117</v>
+        <v>36.32730390846874</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.163842569620377</v>
       </c>
       <c r="I13">
-        <v>32.41049287869689</v>
+        <v>5.929086387753548</v>
       </c>
       <c r="J13">
-        <v>5.7666679602582</v>
+        <v>10.11272202096061</v>
       </c>
       <c r="K13">
-        <v>28.21204136210168</v>
+        <v>19.21167096297563</v>
       </c>
       <c r="L13">
-        <v>5.358348769727595</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>20.48538354500711</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.18822059272484</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>27.95008123615629</v>
+      </c>
+      <c r="P13">
+        <v>25.43115746479248</v>
+      </c>
+      <c r="Q13">
+        <v>19.22194689672725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.870383623976593</v>
+        <v>6.752393406656797</v>
       </c>
       <c r="D14">
-        <v>2.231333723577044</v>
+        <v>3.81301249074724</v>
       </c>
       <c r="E14">
-        <v>6.191269884555279</v>
+        <v>18.61328650437591</v>
       </c>
       <c r="F14">
-        <v>43.94046581275767</v>
+        <v>25.24112511693211</v>
       </c>
       <c r="G14">
-        <v>2.097199460883973</v>
+        <v>35.25496941755476</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.000156661511138</v>
       </c>
       <c r="I14">
-        <v>32.26883940344872</v>
+        <v>5.882678481895056</v>
       </c>
       <c r="J14">
-        <v>5.775666694758424</v>
+        <v>9.887443918284287</v>
       </c>
       <c r="K14">
-        <v>27.97675397645977</v>
+        <v>18.75955198903678</v>
       </c>
       <c r="L14">
-        <v>5.365315341624466</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.34633401306686</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.25069003748188</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>26.30163842051059</v>
+      </c>
+      <c r="P14">
+        <v>25.57598400676718</v>
+      </c>
+      <c r="Q14">
+        <v>18.70465876115052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.857285595395803</v>
+        <v>6.730849502145017</v>
       </c>
       <c r="D15">
-        <v>2.223616584492864</v>
+        <v>3.816997184666941</v>
       </c>
       <c r="E15">
-        <v>6.189385348379479</v>
+        <v>19.15597501626487</v>
       </c>
       <c r="F15">
-        <v>43.80871590968385</v>
+        <v>25.00006562917643</v>
       </c>
       <c r="G15">
-        <v>2.098542044740542</v>
+        <v>34.86196082969609</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.191648014141856</v>
       </c>
       <c r="I15">
-        <v>32.18268544479319</v>
+        <v>5.85791907984798</v>
       </c>
       <c r="J15">
-        <v>5.781207718113252</v>
+        <v>9.809983885973098</v>
       </c>
       <c r="K15">
-        <v>27.83220860750313</v>
+        <v>18.58987196760949</v>
       </c>
       <c r="L15">
-        <v>5.369600420922203</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.26106202920391</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.28894484600128</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>25.81306454431979</v>
+      </c>
+      <c r="P15">
+        <v>25.54615843847523</v>
+      </c>
+      <c r="Q15">
+        <v>18.52048376237317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.781875633805989</v>
+        <v>6.57944137061859</v>
       </c>
       <c r="D16">
-        <v>2.179532907478182</v>
+        <v>3.734173166299236</v>
       </c>
       <c r="E16">
-        <v>6.179238471661119</v>
+        <v>18.60097011402306</v>
       </c>
       <c r="F16">
-        <v>43.06521135741804</v>
+        <v>24.29262002439547</v>
       </c>
       <c r="G16">
-        <v>2.106248195102533</v>
+        <v>33.78967766529274</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.914636261209211</v>
       </c>
       <c r="I16">
-        <v>31.69819227314122</v>
+        <v>5.727312348462689</v>
       </c>
       <c r="J16">
-        <v>5.813405638289349</v>
+        <v>9.636809051837519</v>
       </c>
       <c r="K16">
-        <v>26.99731336600165</v>
+        <v>18.1409583396141</v>
       </c>
       <c r="L16">
-        <v>5.394433696621656</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>19.77087687211123</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.50809808953225</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>25.11057107196274</v>
+      </c>
+      <c r="P16">
+        <v>24.89049820863757</v>
+      </c>
+      <c r="Q16">
+        <v>18.0593337989613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.735308756272729</v>
+        <v>6.454549317155001</v>
       </c>
       <c r="D17">
-        <v>2.152592264383419</v>
+        <v>3.645577266736128</v>
       </c>
       <c r="E17">
-        <v>6.173586411716003</v>
+        <v>16.85834514042681</v>
       </c>
       <c r="F17">
-        <v>42.61915685758314</v>
+        <v>24.09897025566143</v>
       </c>
       <c r="G17">
-        <v>2.110990132846527</v>
+        <v>33.55399123368377</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.208066818374036</v>
       </c>
       <c r="I17">
-        <v>31.40901906582372</v>
+        <v>5.651133837827299</v>
       </c>
       <c r="J17">
-        <v>5.833554250511146</v>
+        <v>9.627059115216355</v>
       </c>
       <c r="K17">
-        <v>26.47923809821036</v>
+        <v>18.04239849935862</v>
       </c>
       <c r="L17">
-        <v>5.409919247332569</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.46882272389275</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.64255969819958</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>25.48667558877382</v>
+      </c>
+      <c r="P17">
+        <v>24.29796064379511</v>
+      </c>
+      <c r="Q17">
+        <v>17.98893436272406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.708415989004447</v>
+        <v>6.365959103669628</v>
       </c>
       <c r="D18">
-        <v>2.137126630230914</v>
+        <v>3.540546259129933</v>
       </c>
       <c r="E18">
-        <v>6.170542291532639</v>
+        <v>14.13356132486562</v>
       </c>
       <c r="F18">
-        <v>42.36622122434611</v>
+        <v>24.35249862346662</v>
       </c>
       <c r="G18">
-        <v>2.113724193182225</v>
+        <v>34.06245000682488</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.125217621124142</v>
       </c>
       <c r="I18">
-        <v>31.24558373377877</v>
+        <v>5.615975488701994</v>
       </c>
       <c r="J18">
-        <v>5.845288679648329</v>
+        <v>9.763253548511502</v>
       </c>
       <c r="K18">
-        <v>26.17908126337815</v>
+        <v>18.2623701412157</v>
       </c>
       <c r="L18">
-        <v>5.418919868107137</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>19.29460848116453</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.71993585338287</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>26.85021348810092</v>
+      </c>
+      <c r="P18">
+        <v>23.69991856366068</v>
+      </c>
+      <c r="Q18">
+        <v>18.26641031107224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.699292263098789</v>
+        <v>6.272166886001195</v>
       </c>
       <c r="D19">
-        <v>2.131894659475072</v>
+        <v>3.440136884274876</v>
       </c>
       <c r="E19">
-        <v>6.169546785745991</v>
+        <v>11.44885070033849</v>
       </c>
       <c r="F19">
-        <v>42.28119721592299</v>
+        <v>24.89433632550952</v>
       </c>
       <c r="G19">
-        <v>2.114651155382044</v>
+        <v>35.04049511989829</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.047895695527831</v>
       </c>
       <c r="I19">
-        <v>31.19073741803089</v>
+        <v>5.61971408990063</v>
       </c>
       <c r="J19">
-        <v>5.849286733547665</v>
+        <v>9.985561379007326</v>
       </c>
       <c r="K19">
-        <v>26.07707992383786</v>
+        <v>18.65988729248999</v>
       </c>
       <c r="L19">
-        <v>5.421983557043519</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>19.23554153345973</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.74614332508634</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>28.8627464450469</v>
+      </c>
+      <c r="P19">
+        <v>23.15489053898834</v>
+      </c>
+      <c r="Q19">
+        <v>18.75636457199661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.740277219877695</v>
+        <v>6.256044534671489</v>
       </c>
       <c r="D20">
-        <v>2.155456874166512</v>
+        <v>3.345476949680056</v>
       </c>
       <c r="E20">
-        <v>6.174166599941218</v>
+        <v>10.16495572001664</v>
       </c>
       <c r="F20">
-        <v>42.66626354192004</v>
+        <v>26.27243871312909</v>
       </c>
       <c r="G20">
-        <v>2.11048468856616</v>
+        <v>37.37753529752399</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.563071581487128</v>
       </c>
       <c r="I20">
-        <v>31.43950151453904</v>
+        <v>5.731620595989627</v>
       </c>
       <c r="J20">
-        <v>5.831394337406577</v>
+        <v>10.46459908669934</v>
       </c>
       <c r="K20">
-        <v>26.53461300144345</v>
+        <v>19.62282198648541</v>
       </c>
       <c r="L20">
-        <v>5.408261114043022</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.50102699894493</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.62824283497071</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>32.53092747815337</v>
+      </c>
+      <c r="P20">
+        <v>22.79078126454449</v>
+      </c>
+      <c r="Q20">
+        <v>19.86897914502923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.876658197732254</v>
+        <v>6.484470012555518</v>
       </c>
       <c r="D21">
-        <v>2.235037105780825</v>
+        <v>3.452188896599623</v>
       </c>
       <c r="E21">
-        <v>6.192185255923817</v>
+        <v>10.28794559917381</v>
       </c>
       <c r="F21">
-        <v>44.00384991926799</v>
+        <v>27.80245637893418</v>
       </c>
       <c r="G21">
-        <v>2.096555823364857</v>
+        <v>39.74197136645291</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.863589263900006</v>
       </c>
       <c r="I21">
-        <v>32.31031830992626</v>
+        <v>5.979678309490084</v>
       </c>
       <c r="J21">
-        <v>5.773017495245446</v>
+        <v>10.89060609066068</v>
       </c>
       <c r="K21">
-        <v>28.04595202506221</v>
+        <v>20.62209783228834</v>
       </c>
       <c r="L21">
-        <v>5.363265378814972</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.38719710532299</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.23234342034411</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>34.64954588629054</v>
+      </c>
+      <c r="P21">
+        <v>23.7676669038697</v>
+      </c>
+      <c r="Q21">
+        <v>20.93077696220116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.964759801039319</v>
+        <v>6.659081927900676</v>
       </c>
       <c r="D22">
-        <v>2.287496692900168</v>
+        <v>3.521994681752603</v>
       </c>
       <c r="E22">
-        <v>6.205884095926688</v>
+        <v>10.32911177333918</v>
       </c>
       <c r="F22">
-        <v>44.91199545844277</v>
+        <v>28.75426032263299</v>
       </c>
       <c r="G22">
-        <v>2.087482479382213</v>
+        <v>41.20235826184908</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.044756024688255</v>
       </c>
       <c r="I22">
-        <v>32.90669213251892</v>
+        <v>6.137094916341224</v>
       </c>
       <c r="J22">
-        <v>5.736164133545711</v>
+        <v>11.1581783132655</v>
       </c>
       <c r="K22">
-        <v>29.01464342468011</v>
+        <v>21.25845850336138</v>
       </c>
       <c r="L22">
-        <v>5.334661076957765</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>20.96190525231421</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.97325793979134</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>35.84179958278786</v>
+      </c>
+      <c r="P22">
+        <v>24.41387128153664</v>
+      </c>
+      <c r="Q22">
+        <v>21.59128262250531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.917834834676348</v>
+        <v>6.593375663570181</v>
       </c>
       <c r="D23">
-        <v>2.259447011484175</v>
+        <v>3.48118848329848</v>
       </c>
       <c r="E23">
-        <v>6.198392662485572</v>
+        <v>10.30745957679411</v>
       </c>
       <c r="F23">
-        <v>44.42410243383337</v>
+        <v>28.27538734480875</v>
       </c>
       <c r="G23">
-        <v>2.092323860510707</v>
+        <v>40.47422556387821</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.949247763334252</v>
       </c>
       <c r="I23">
-        <v>32.58582382400093</v>
+        <v>6.053894752999224</v>
       </c>
       <c r="J23">
-        <v>5.755714315488655</v>
+        <v>11.02607840291513</v>
       </c>
       <c r="K23">
-        <v>28.4993522487818</v>
+        <v>20.95385790831592</v>
       </c>
       <c r="L23">
-        <v>5.349855876285902</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.65558162689974</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.11160270204833</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>35.21955566544424</v>
+      </c>
+      <c r="P23">
+        <v>24.0690376423046</v>
+      </c>
+      <c r="Q23">
+        <v>21.26335690283206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.738031353077659</v>
+        <v>6.289654089089533</v>
       </c>
       <c r="D24">
-        <v>2.154161714641141</v>
+        <v>3.328214773063528</v>
       </c>
       <c r="E24">
-        <v>6.17390365816935</v>
+        <v>10.22523408055455</v>
       </c>
       <c r="F24">
-        <v>42.64495570377881</v>
+        <v>26.35863663712193</v>
       </c>
       <c r="G24">
-        <v>2.110713175144684</v>
+        <v>37.53581493861238</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.579684012952227</v>
       </c>
       <c r="I24">
-        <v>31.4257116498862</v>
+        <v>5.731382550913748</v>
       </c>
       <c r="J24">
-        <v>5.832370364683721</v>
+        <v>10.5006409443547</v>
       </c>
       <c r="K24">
-        <v>26.50958519982944</v>
+        <v>19.71004396022909</v>
       </c>
       <c r="L24">
-        <v>5.409010451226668</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.4864691853535</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.63471525615006</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>32.73697263959842</v>
+      </c>
+      <c r="P24">
+        <v>22.72113243101421</v>
+      </c>
+      <c r="Q24">
+        <v>19.94814707408782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.540005385423868</v>
+        <v>5.938122619401281</v>
       </c>
       <c r="D25">
-        <v>2.041673017118285</v>
+        <v>3.153766140183224</v>
       </c>
       <c r="E25">
-        <v>6.15535657811107</v>
+        <v>10.13540186145435</v>
       </c>
       <c r="F25">
-        <v>40.86372060102775</v>
+        <v>24.16380375912084</v>
       </c>
       <c r="G25">
-        <v>2.130815161532374</v>
+        <v>34.13897331765549</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.166607027734657</v>
       </c>
       <c r="I25">
-        <v>30.28412448927972</v>
+        <v>5.369361972471839</v>
       </c>
       <c r="J25">
-        <v>5.920619698873225</v>
+        <v>9.917788798659103</v>
       </c>
       <c r="K25">
-        <v>24.28057407351051</v>
+        <v>18.2934173193028</v>
       </c>
       <c r="L25">
-        <v>5.476417680113291</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>18.20745029927636</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.20072524934155</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>29.81967377683572</v>
+      </c>
+      <c r="P25">
+        <v>21.17533802462629</v>
+      </c>
+      <c r="Q25">
+        <v>18.45484526164392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.733244597326562</v>
+        <v>5.092623057446046</v>
       </c>
       <c r="D2">
-        <v>3.007471335639433</v>
+        <v>3.253923493147188</v>
       </c>
       <c r="E2">
-        <v>10.06806837432763</v>
+        <v>9.742416923158688</v>
       </c>
       <c r="F2">
-        <v>22.51963629011568</v>
+        <v>21.43933289806703</v>
       </c>
       <c r="G2">
-        <v>31.58230617519286</v>
+        <v>29.20674848970978</v>
       </c>
       <c r="H2">
-        <v>2.851482801760775</v>
+        <v>2.754728376386483</v>
       </c>
       <c r="I2">
-        <v>5.092730622119276</v>
+        <v>4.829238208059663</v>
       </c>
       <c r="J2">
-        <v>9.505450306881452</v>
+        <v>9.865445361317276</v>
       </c>
       <c r="K2">
-        <v>17.28512662471723</v>
+        <v>16.02629256022394</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.56556579392141</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.02308949411831</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>27.49151192611247</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>19.95826319267839</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>17.36129056562154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>27.08131241252387</v>
+      </c>
+      <c r="R2">
+        <v>20.04979582644978</v>
+      </c>
+      <c r="S2">
+        <v>16.49835948359775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.540576570092743</v>
+        <v>4.962599295675686</v>
       </c>
       <c r="D3">
-        <v>2.909116975486504</v>
+        <v>3.126395166554727</v>
       </c>
       <c r="E3">
-        <v>10.01931745217107</v>
+        <v>9.72335935014306</v>
       </c>
       <c r="F3">
-        <v>21.30216717033075</v>
+        <v>20.36614525521584</v>
       </c>
       <c r="G3">
-        <v>29.65779485869125</v>
+        <v>27.48031544978195</v>
       </c>
       <c r="H3">
-        <v>2.627937969548771</v>
+        <v>2.542213871489059</v>
       </c>
       <c r="I3">
-        <v>4.894739710751337</v>
+        <v>4.661864049300702</v>
       </c>
       <c r="J3">
-        <v>9.204795662368369</v>
+        <v>9.617824261276597</v>
       </c>
       <c r="K3">
-        <v>16.51583407746141</v>
+        <v>15.43026307900373</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.41330598221003</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.171158963855863</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.77013878461165</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>19.09469813760655</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.55059513362028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>25.40556478181418</v>
+      </c>
+      <c r="R3">
+        <v>19.17466953627292</v>
+      </c>
+      <c r="S3">
+        <v>15.8120359818299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.41479785803663</v>
+        <v>4.878876262437894</v>
       </c>
       <c r="D4">
-        <v>2.846610113991457</v>
+        <v>3.045352803958849</v>
       </c>
       <c r="E4">
-        <v>9.987949617847939</v>
+        <v>9.711236513260301</v>
       </c>
       <c r="F4">
-        <v>20.52447988415476</v>
+        <v>19.68107588091129</v>
       </c>
       <c r="G4">
-        <v>28.41679847778833</v>
+        <v>26.36724652787871</v>
       </c>
       <c r="H4">
-        <v>2.486230926241451</v>
+        <v>2.407404678336827</v>
       </c>
       <c r="I4">
-        <v>4.768633666194058</v>
+        <v>4.555236194360524</v>
       </c>
       <c r="J4">
-        <v>9.017514017335152</v>
+        <v>9.462398059318998</v>
       </c>
       <c r="K4">
-        <v>16.02620767875661</v>
+        <v>15.05090168477654</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.31165959605599</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.631532215743903</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.64907742054097</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>18.54555275262354</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.03633485588279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>24.31404725911897</v>
+      </c>
+      <c r="R4">
+        <v>18.61808982905552</v>
+      </c>
+      <c r="S4">
+        <v>15.37702386103637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.35338227477799</v>
+        <v>4.839862935319275</v>
       </c>
       <c r="D5">
-        <v>2.821693071344525</v>
+        <v>3.012809115019484</v>
       </c>
       <c r="E5">
-        <v>9.974589261036172</v>
+        <v>9.706158316457405</v>
       </c>
       <c r="F5">
-        <v>20.19138436330298</v>
+        <v>19.3870050146771</v>
       </c>
       <c r="G5">
-        <v>27.88017193179716</v>
+        <v>25.88459712164243</v>
       </c>
       <c r="H5">
-        <v>2.42709734941287</v>
+        <v>2.351138210855111</v>
       </c>
       <c r="I5">
-        <v>4.715611415404823</v>
+        <v>4.510569371134148</v>
       </c>
       <c r="J5">
-        <v>8.937505854166879</v>
+        <v>9.395430715044228</v>
       </c>
       <c r="K5">
-        <v>15.81180905788042</v>
+        <v>14.88295644592036</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.26077167342618</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.39989102841766</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.17295855155547</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>18.31793269346878</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.81538944890168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>23.85043325416233</v>
+      </c>
+      <c r="R5">
+        <v>18.38734595945047</v>
+      </c>
+      <c r="S5">
+        <v>15.18937108155259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.332961929429476</v>
+        <v>4.828644646267636</v>
       </c>
       <c r="D6">
-        <v>2.818845216618279</v>
+        <v>3.008776594710109</v>
       </c>
       <c r="E6">
-        <v>9.972123772276712</v>
+        <v>9.705314674311918</v>
       </c>
       <c r="F6">
-        <v>20.12472976017332</v>
+        <v>19.32726274384448</v>
       </c>
       <c r="G6">
-        <v>27.77027504842779</v>
+        <v>25.78412882708858</v>
       </c>
       <c r="H6">
-        <v>2.416902728548953</v>
+        <v>2.34144935473827</v>
       </c>
       <c r="I6">
-        <v>4.706278332292142</v>
+        <v>4.50296283352537</v>
       </c>
       <c r="J6">
-        <v>8.920376440612728</v>
+        <v>9.380785283390221</v>
       </c>
       <c r="K6">
-        <v>15.76278991315282</v>
+        <v>14.84246255644347</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.24315536906417</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.3510623467696</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.08902582690094</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>18.28064656761844</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.76930746910928</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>23.76869694567728</v>
+      </c>
+      <c r="R6">
+        <v>18.34951777337902</v>
+      </c>
+      <c r="S6">
+        <v>15.14925367759088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.3865808702</v>
+        <v>4.866713134967475</v>
       </c>
       <c r="D7">
-        <v>2.849857266668728</v>
+        <v>3.05102756344345</v>
       </c>
       <c r="E7">
-        <v>9.987175613461009</v>
+        <v>9.711358723003769</v>
       </c>
       <c r="F7">
-        <v>20.49075215932744</v>
+        <v>19.63175940238638</v>
       </c>
       <c r="G7">
-        <v>28.35639542828343</v>
+        <v>26.41888424863625</v>
       </c>
       <c r="H7">
-        <v>2.484607452042132</v>
+        <v>2.405461866582653</v>
       </c>
       <c r="I7">
-        <v>4.766524400337089</v>
+        <v>4.553453912750513</v>
       </c>
       <c r="J7">
-        <v>9.006124500395293</v>
+        <v>9.39385001340754</v>
       </c>
       <c r="K7">
-        <v>15.98786060881739</v>
+        <v>15.00406218940313</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.27874215259384</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.591812540334418</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.63230758050616</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>18.54458252747086</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.00871820184507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>24.29157296144129</v>
+      </c>
+      <c r="R7">
+        <v>18.61825049815486</v>
+      </c>
+      <c r="S7">
+        <v>15.336615496279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.633405596333866</v>
+        <v>5.036222109152671</v>
       </c>
       <c r="D8">
-        <v>2.97862474224533</v>
+        <v>3.222830297740226</v>
       </c>
       <c r="E8">
-        <v>10.05082510522062</v>
+        <v>9.736889158733455</v>
       </c>
       <c r="F8">
-        <v>22.06996880047223</v>
+        <v>20.98639802582939</v>
       </c>
       <c r="G8">
-        <v>30.86576793676806</v>
+        <v>28.89802442134875</v>
       </c>
       <c r="H8">
-        <v>2.774245849858735</v>
+        <v>2.680003794686337</v>
       </c>
       <c r="I8">
-        <v>5.023497169527223</v>
+        <v>4.769525397336448</v>
       </c>
       <c r="J8">
-        <v>9.389223943878241</v>
+        <v>9.581753044376836</v>
       </c>
       <c r="K8">
-        <v>16.97901554099242</v>
+        <v>15.74627681865261</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.45987455833851</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.669763846676089</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.89856385795809</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>19.66723646835962</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>17.05443850119111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>26.48528964968551</v>
+      </c>
+      <c r="R8">
+        <v>19.75868753811062</v>
+      </c>
+      <c r="S8">
+        <v>16.18995902737076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.10386726004709</v>
+        <v>5.355195681584174</v>
       </c>
       <c r="D9">
-        <v>3.207784646126664</v>
+        <v>3.522206021054922</v>
       </c>
       <c r="E9">
-        <v>10.16671827855587</v>
+        <v>9.784505439423004</v>
       </c>
       <c r="F9">
-        <v>24.96410156093414</v>
+        <v>23.53479147411159</v>
       </c>
       <c r="G9">
-        <v>35.39229578745467</v>
+        <v>33.00838175734238</v>
       </c>
       <c r="H9">
-        <v>3.309162067758111</v>
+        <v>3.187635436306074</v>
       </c>
       <c r="I9">
-        <v>5.49501634941304</v>
+        <v>5.166973380450413</v>
       </c>
       <c r="J9">
-        <v>10.1328240942358</v>
+        <v>10.15004409111077</v>
       </c>
       <c r="K9">
-        <v>18.83559868867832</v>
+        <v>17.18610612512937</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.81983998338459</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.70872689727978</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.8497738408395</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>21.70453140725386</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>19.00565175231659</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>30.32832799714577</v>
+      </c>
+      <c r="R9">
+        <v>21.8235539874327</v>
+      </c>
+      <c r="S9">
+        <v>17.83971806419233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.406862785701247</v>
+        <v>5.5743847674601</v>
       </c>
       <c r="D10">
-        <v>3.378833833641056</v>
+        <v>3.753508730894382</v>
       </c>
       <c r="E10">
-        <v>10.17436969221928</v>
+        <v>9.712500067016993</v>
       </c>
       <c r="F10">
-        <v>26.82858591717738</v>
+        <v>25.09380946520617</v>
       </c>
       <c r="G10">
-        <v>38.24440653304119</v>
+        <v>36.08669271749028</v>
       </c>
       <c r="H10">
-        <v>3.657866769087298</v>
+        <v>3.515213902316102</v>
       </c>
       <c r="I10">
-        <v>5.816870698813285</v>
+        <v>5.435574200411844</v>
       </c>
       <c r="J10">
-        <v>10.62112543080121</v>
+        <v>10.21626794676745</v>
       </c>
       <c r="K10">
-        <v>20.02316830637684</v>
+        <v>18.04580637522177</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.96199325677214</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.14861997206578</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.15650754042603</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>23.15497279127811</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>20.25863104279573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>32.53862734911669</v>
+      </c>
+      <c r="R10">
+        <v>23.29779728253638</v>
+      </c>
+      <c r="S10">
+        <v>18.82584255260954</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.564316741842396</v>
+        <v>5.691355717822952</v>
       </c>
       <c r="D11">
-        <v>3.565166232991035</v>
+        <v>3.990763263556128</v>
       </c>
       <c r="E11">
-        <v>11.00500954261627</v>
+        <v>10.23451035140134</v>
       </c>
       <c r="F11">
-        <v>26.86838680772078</v>
+        <v>24.91937656987952</v>
       </c>
       <c r="G11">
-        <v>38.11731557418432</v>
+        <v>36.98365092962428</v>
       </c>
       <c r="H11">
-        <v>4.148207936375556</v>
+        <v>4.017101407487686</v>
       </c>
       <c r="I11">
-        <v>5.926304346082644</v>
+        <v>5.523706710066348</v>
       </c>
       <c r="J11">
-        <v>10.53499179584499</v>
+        <v>9.484155524062169</v>
       </c>
       <c r="K11">
-        <v>19.95642908868986</v>
+        <v>17.81758853581626</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.60695565393682</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.29815274219251</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>31.71642445580091</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>24.33220029163769</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>20.13387965268761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>31.03687283219962</v>
+      </c>
+      <c r="R11">
+        <v>24.49113890474514</v>
+      </c>
+      <c r="S11">
+        <v>18.51868953443091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.682425270809126</v>
+        <v>5.77247290659396</v>
       </c>
       <c r="D12">
-        <v>3.685696275363179</v>
+        <v>4.134132421884889</v>
       </c>
       <c r="E12">
-        <v>13.33077831779767</v>
+        <v>12.45011900450275</v>
       </c>
       <c r="F12">
-        <v>26.54754410132437</v>
+        <v>24.52678369939875</v>
       </c>
       <c r="G12">
-        <v>37.48152450900283</v>
+        <v>36.87380956603227</v>
       </c>
       <c r="H12">
-        <v>5.066450550155148</v>
+        <v>4.960259685544308</v>
       </c>
       <c r="I12">
-        <v>5.95737161363427</v>
+        <v>5.547508426119561</v>
       </c>
       <c r="J12">
-        <v>10.36887559991465</v>
+        <v>9.047724775178027</v>
       </c>
       <c r="K12">
-        <v>19.69415950414896</v>
+        <v>17.51732154618334</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.32909739090089</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.19078450725737</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>30.01751052183215</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>25.03419931639766</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>19.79289733286205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>29.32219823081016</v>
+      </c>
+      <c r="R12">
+        <v>25.1981707447075</v>
+      </c>
+      <c r="S12">
+        <v>18.11883662154612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.742621653013645</v>
+        <v>5.815272064688696</v>
       </c>
       <c r="D13">
-        <v>3.769293736141098</v>
+        <v>4.214231331374732</v>
       </c>
       <c r="E13">
-        <v>16.30944538856745</v>
+        <v>15.43453900266314</v>
       </c>
       <c r="F13">
-        <v>25.88083316406028</v>
+        <v>23.92852857187265</v>
       </c>
       <c r="G13">
-        <v>36.32730390846874</v>
+        <v>35.69300075169379</v>
       </c>
       <c r="H13">
-        <v>6.163842569620377</v>
+        <v>6.081180010452679</v>
       </c>
       <c r="I13">
-        <v>5.929086387753548</v>
+        <v>5.52460810085689</v>
       </c>
       <c r="J13">
-        <v>10.11272202096061</v>
+        <v>8.90699801686465</v>
       </c>
       <c r="K13">
-        <v>19.21167096297563</v>
+        <v>17.11587642924879</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.07304789224158</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.8595591622107</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>27.95008123615629</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>25.43115746479248</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>19.22194689672725</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>27.2845778665214</v>
+      </c>
+      <c r="R13">
+        <v>25.58936767719934</v>
+      </c>
+      <c r="S13">
+        <v>17.6115822695274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.752393406656797</v>
+        <v>5.825850021561451</v>
       </c>
       <c r="D14">
-        <v>3.81301249074724</v>
+        <v>4.243206401842552</v>
       </c>
       <c r="E14">
-        <v>18.61328650437591</v>
+        <v>17.77991889748977</v>
       </c>
       <c r="F14">
-        <v>25.24112511693211</v>
+        <v>23.40007926112969</v>
       </c>
       <c r="G14">
-        <v>35.25496941755476</v>
+        <v>34.35496076838572</v>
       </c>
       <c r="H14">
-        <v>7.000156661511138</v>
+        <v>6.931441756941709</v>
       </c>
       <c r="I14">
-        <v>5.882678481895056</v>
+        <v>5.487895347594572</v>
       </c>
       <c r="J14">
-        <v>9.887443918284287</v>
+        <v>8.929633624414613</v>
       </c>
       <c r="K14">
-        <v>18.75955198903678</v>
+        <v>16.77498464379192</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.89405192787163</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.51448941796283</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.30163842051059</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>25.57598400676718</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>18.70465876115052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>25.67738905482139</v>
+      </c>
+      <c r="R14">
+        <v>25.72533224251833</v>
+      </c>
+      <c r="S14">
+        <v>17.19431098448601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.730849502145017</v>
+        <v>5.813052618242838</v>
       </c>
       <c r="D15">
-        <v>3.816997184666941</v>
+        <v>4.238279305352019</v>
       </c>
       <c r="E15">
-        <v>19.15597501626487</v>
+        <v>18.34300078734692</v>
       </c>
       <c r="F15">
-        <v>25.00006562917643</v>
+        <v>23.214333844954</v>
       </c>
       <c r="G15">
-        <v>34.86196082969609</v>
+        <v>33.79207039613421</v>
       </c>
       <c r="H15">
-        <v>7.191648014141856</v>
+        <v>7.126517715292429</v>
       </c>
       <c r="I15">
-        <v>5.85791907984798</v>
+        <v>5.468647432202419</v>
       </c>
       <c r="J15">
-        <v>9.809983885973098</v>
+        <v>8.98484064003382</v>
       </c>
       <c r="K15">
-        <v>18.58987196760949</v>
+        <v>16.65703910704196</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.8457837790432</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.37037737356089</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.81306454431979</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>25.54615843847523</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>18.52048376237317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>25.20784520797393</v>
+      </c>
+      <c r="R15">
+        <v>25.69122458991542</v>
+      </c>
+      <c r="S15">
+        <v>17.05915961524497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.57944137061859</v>
+        <v>5.699872325847999</v>
       </c>
       <c r="D16">
-        <v>3.734173166299236</v>
+        <v>4.109593331507468</v>
       </c>
       <c r="E16">
-        <v>18.60097011402306</v>
+        <v>17.86735905293027</v>
       </c>
       <c r="F16">
-        <v>24.29262002439547</v>
+        <v>22.74853304194835</v>
       </c>
       <c r="G16">
-        <v>33.78967766529274</v>
+        <v>31.87106539533379</v>
       </c>
       <c r="H16">
-        <v>6.914636261209211</v>
+        <v>6.854945909740184</v>
       </c>
       <c r="I16">
-        <v>5.727312348462689</v>
+        <v>5.364340355471713</v>
       </c>
       <c r="J16">
-        <v>9.636809051837519</v>
+        <v>9.414318480587134</v>
       </c>
       <c r="K16">
-        <v>18.1409583396141</v>
+        <v>16.41925941146732</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.86519366933641</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.86489840285279</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.11057107196274</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>24.89049820863757</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>18.0593337989613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>24.58185195813939</v>
+      </c>
+      <c r="R16">
+        <v>25.01741727086253</v>
+      </c>
+      <c r="S16">
+        <v>16.80820623628892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.454549317155001</v>
+        <v>5.607112887354285</v>
       </c>
       <c r="D17">
-        <v>3.645577266736128</v>
+        <v>3.99794379488349</v>
       </c>
       <c r="E17">
-        <v>16.85834514042681</v>
+        <v>16.1539832228377</v>
       </c>
       <c r="F17">
-        <v>24.09897025566143</v>
+        <v>22.65923633481029</v>
       </c>
       <c r="G17">
-        <v>33.55399123368377</v>
+        <v>31.2546001481703</v>
       </c>
       <c r="H17">
-        <v>6.208066818374036</v>
+        <v>6.145746155473743</v>
       </c>
       <c r="I17">
-        <v>5.651133837827299</v>
+        <v>5.302628740792848</v>
       </c>
       <c r="J17">
-        <v>9.627059115216355</v>
+        <v>9.661148295118991</v>
       </c>
       <c r="K17">
-        <v>18.04239849935862</v>
+        <v>16.40810120857001</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.96930475469555</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.64980381869361</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.48667558877382</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>24.29796064379511</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>17.98893436272406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>24.98765376361658</v>
+      </c>
+      <c r="R17">
+        <v>24.41727465190973</v>
+      </c>
+      <c r="S17">
+        <v>16.82667503579574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.365959103669628</v>
+        <v>5.536253141044981</v>
       </c>
       <c r="D18">
-        <v>3.540546259129933</v>
+        <v>3.88158539968619</v>
       </c>
       <c r="E18">
-        <v>14.13356132486562</v>
+        <v>13.43393859526648</v>
       </c>
       <c r="F18">
-        <v>24.35249862346662</v>
+        <v>22.93766031437078</v>
       </c>
       <c r="G18">
-        <v>34.06245000682488</v>
+        <v>31.56517698431723</v>
       </c>
       <c r="H18">
-        <v>5.125217621124142</v>
+        <v>5.050371683598159</v>
       </c>
       <c r="I18">
-        <v>5.615975488701994</v>
+        <v>5.27289938004104</v>
       </c>
       <c r="J18">
-        <v>9.763253548511502</v>
+        <v>9.889316703993815</v>
       </c>
       <c r="K18">
-        <v>18.2623701412157</v>
+        <v>16.63644840493679</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.1897305842503</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.70609111855431</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.85021348810092</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>23.69991856366068</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>18.26641031107224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>26.35318037802184</v>
+      </c>
+      <c r="R18">
+        <v>23.8176702395759</v>
+      </c>
+      <c r="S18">
+        <v>17.12230205219833</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.272166886001195</v>
+        <v>5.476430127680727</v>
       </c>
       <c r="D19">
-        <v>3.440136884274876</v>
+        <v>3.777409810935857</v>
       </c>
       <c r="E19">
-        <v>11.44885070033849</v>
+        <v>10.77769644963573</v>
       </c>
       <c r="F19">
-        <v>24.89433632550952</v>
+        <v>23.45271910617684</v>
       </c>
       <c r="G19">
-        <v>35.04049511989829</v>
+        <v>32.43264106162599</v>
       </c>
       <c r="H19">
-        <v>4.047895695527831</v>
+        <v>3.948534847832709</v>
       </c>
       <c r="I19">
-        <v>5.61971408990063</v>
+        <v>5.27641827360329</v>
       </c>
       <c r="J19">
-        <v>9.985561379007326</v>
+        <v>10.11275543743468</v>
       </c>
       <c r="K19">
-        <v>18.65988729248999</v>
+        <v>16.99023983624038</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.45407539941452</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.94187649324282</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>28.8627464450469</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>23.15489053898834</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>18.75636457199661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>28.35001772093224</v>
+      </c>
+      <c r="R19">
+        <v>23.274955953681</v>
+      </c>
+      <c r="S19">
+        <v>17.58493573162784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.256044534671489</v>
+        <v>5.490258183953225</v>
       </c>
       <c r="D20">
-        <v>3.345476949680056</v>
+        <v>3.697929397341281</v>
       </c>
       <c r="E20">
-        <v>10.16495572001664</v>
+        <v>9.723914169145212</v>
       </c>
       <c r="F20">
-        <v>26.27243871312909</v>
+        <v>24.66793442615163</v>
       </c>
       <c r="G20">
-        <v>37.37753529752399</v>
+        <v>34.86036871141066</v>
       </c>
       <c r="H20">
-        <v>3.563071581487128</v>
+        <v>3.427504648714498</v>
       </c>
       <c r="I20">
-        <v>5.731620595989627</v>
+        <v>5.368869678901248</v>
       </c>
       <c r="J20">
-        <v>10.46459908669934</v>
+        <v>10.35715608399132</v>
       </c>
       <c r="K20">
-        <v>19.62282198648541</v>
+        <v>17.76822918990325</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.88756253152551</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.7341318718646</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.53092747815337</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>22.79078126454449</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>19.86897914502923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>31.95549377685021</v>
+      </c>
+      <c r="R20">
+        <v>22.92359701768213</v>
+      </c>
+      <c r="S20">
+        <v>18.55008396796634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.484470012555518</v>
+        <v>5.668223802530246</v>
       </c>
       <c r="D21">
-        <v>3.452188896599623</v>
+        <v>3.886959634425723</v>
       </c>
       <c r="E21">
-        <v>10.28794559917381</v>
+        <v>9.856913309207178</v>
       </c>
       <c r="F21">
-        <v>27.80245637893418</v>
+        <v>25.70967381015979</v>
       </c>
       <c r="G21">
-        <v>39.74197136645291</v>
+        <v>38.93093683773914</v>
       </c>
       <c r="H21">
-        <v>3.863589263900006</v>
+        <v>3.704282143470138</v>
       </c>
       <c r="I21">
-        <v>5.979678309490084</v>
+        <v>5.566632815619397</v>
       </c>
       <c r="J21">
-        <v>10.89060609066068</v>
+        <v>9.5134071268737</v>
       </c>
       <c r="K21">
-        <v>20.62209783228834</v>
+        <v>18.33728037701835</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.94110616182857</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.74226454096294</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.64954588629054</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>23.7676669038697</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>20.93077696220116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>33.91187976892089</v>
+      </c>
+      <c r="R21">
+        <v>23.93811876820699</v>
+      </c>
+      <c r="S21">
+        <v>19.1852110449537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.659081927900676</v>
+        <v>5.79508785064006</v>
       </c>
       <c r="D22">
-        <v>3.521994681752603</v>
+        <v>4.012018440586244</v>
       </c>
       <c r="E22">
-        <v>10.32911177333918</v>
+        <v>9.890750139915868</v>
       </c>
       <c r="F22">
-        <v>28.75426032263299</v>
+        <v>26.3386427787182</v>
       </c>
       <c r="G22">
-        <v>41.20235826184908</v>
+        <v>41.58176241738373</v>
       </c>
       <c r="H22">
-        <v>4.044756024688255</v>
+        <v>3.87003282324967</v>
       </c>
       <c r="I22">
-        <v>6.137094916341224</v>
+        <v>5.690956852121126</v>
       </c>
       <c r="J22">
-        <v>11.1581783132655</v>
+        <v>8.916419944256633</v>
       </c>
       <c r="K22">
-        <v>21.25845850336138</v>
+        <v>18.69113154877146</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.96777998647609</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.36735424904231</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>35.84179958278786</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>24.41387128153664</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>21.59128262250531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>34.99760948780325</v>
+      </c>
+      <c r="R22">
+        <v>24.60927454060486</v>
+      </c>
+      <c r="S22">
+        <v>19.5620987104755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.593375663570181</v>
+        <v>5.73504182621399</v>
       </c>
       <c r="D23">
-        <v>3.48118848329848</v>
+        <v>3.936202018471149</v>
       </c>
       <c r="E23">
-        <v>10.30745957679411</v>
+        <v>9.869506098950348</v>
       </c>
       <c r="F23">
-        <v>28.27538734480875</v>
+        <v>26.06499229444805</v>
       </c>
       <c r="G23">
-        <v>40.47422556387821</v>
+        <v>40.00371098651851</v>
       </c>
       <c r="H23">
-        <v>3.949247763334252</v>
+        <v>3.783491360020955</v>
       </c>
       <c r="I23">
-        <v>6.053894752999224</v>
+        <v>5.625258673989335</v>
       </c>
       <c r="J23">
-        <v>11.02607840291513</v>
+        <v>9.368237148967966</v>
       </c>
       <c r="K23">
-        <v>20.95385790831592</v>
+        <v>18.55892750446099</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.99197675451671</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.07936532568959</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.21955566544424</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>24.0690376423046</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>21.26335690283206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>34.44348006880686</v>
+      </c>
+      <c r="R23">
+        <v>24.24858276569448</v>
+      </c>
+      <c r="S23">
+        <v>19.41420969505381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.289654089089533</v>
+        <v>5.500467585620025</v>
       </c>
       <c r="D24">
-        <v>3.328214773063528</v>
+        <v>3.67904215233433</v>
       </c>
       <c r="E24">
-        <v>10.22523408055455</v>
+        <v>9.811619467465784</v>
       </c>
       <c r="F24">
-        <v>26.35863663712193</v>
+        <v>24.75342418476419</v>
       </c>
       <c r="G24">
-        <v>37.53581493861238</v>
+        <v>34.99512067353926</v>
       </c>
       <c r="H24">
-        <v>3.579684012952227</v>
+        <v>3.443834692458496</v>
       </c>
       <c r="I24">
-        <v>5.731382550913748</v>
+        <v>5.36699769504684</v>
       </c>
       <c r="J24">
-        <v>10.5006409443547</v>
+        <v>10.40001351339568</v>
       </c>
       <c r="K24">
-        <v>19.71004396022909</v>
+        <v>17.85148348343967</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.95061983359601</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.7911391788843</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.73697263959842</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>22.72113243101421</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>19.94814707408782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>32.16062301291085</v>
+      </c>
+      <c r="R24">
+        <v>22.85400017709145</v>
+      </c>
+      <c r="S24">
+        <v>18.62802387125635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.938122619401281</v>
+        <v>5.254064858918098</v>
       </c>
       <c r="D25">
-        <v>3.153766140183224</v>
+        <v>3.447182873061219</v>
       </c>
       <c r="E25">
-        <v>10.13540186145435</v>
+        <v>9.771532683091682</v>
       </c>
       <c r="F25">
-        <v>24.16380375912084</v>
+        <v>22.8469376636031</v>
       </c>
       <c r="G25">
-        <v>34.13897331765549</v>
+        <v>31.73157548072941</v>
       </c>
       <c r="H25">
-        <v>3.166607027734657</v>
+        <v>3.05308079939346</v>
       </c>
       <c r="I25">
-        <v>5.369361972471839</v>
+        <v>5.063179665181723</v>
       </c>
       <c r="J25">
-        <v>9.917788798659103</v>
+        <v>10.060935986683</v>
       </c>
       <c r="K25">
-        <v>18.2934173193028</v>
+        <v>16.76985368802432</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.70162960976507</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.14431423983394</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.81967377683572</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>21.17533802462629</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>18.45484526164392</v>
+        <v>29.33398475552381</v>
+      </c>
+      <c r="R25">
+        <v>21.28556723195096</v>
+      </c>
+      <c r="S25">
+        <v>17.38720721996563</v>
       </c>
     </row>
   </sheetData>
